--- a/shared/ojb-resources-common/src/main/resources/ssp/Court_Case_Query_Results/artifacts/service_model/information_model/IEPD/documentation/Court_Case_Query_Results-Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Court_Case_Query_Results/artifacts/service_model/information_model/IEPD/documentation/Court_Case_Query_Results-Mapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1220" windowWidth="29500" windowHeight="14600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Court Case Query Results Mappin" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="1194">
   <si>
     <t>Race</t>
   </si>
@@ -3593,6 +3593,18 @@
   </si>
   <si>
     <t>ccq-res-doc:CourtCaseQueryResults/nc:Person/j:PersonAugmentation/j:PersonStateFingerprintIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>Docket identification for the case</t>
+  </si>
+  <si>
+    <t>ccq-res-doc:CourtCaseQueryResults/nc:Case/nc:CaseDocketID</t>
+  </si>
+  <si>
+    <t>Case Title</t>
+  </si>
+  <si>
+    <t>made from JurisdictionText + “ vs. ”PersonSurName+”,  “+PersonGivenName+” “+PersonMiddleName</t>
   </si>
 </sst>
 </file>
@@ -3782,7 +3794,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="745">
+  <cellStyleXfs count="747">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4528,8 +4540,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4706,8 +4720,11 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="745">
+  <cellStyles count="747">
     <cellStyle name="Calculation" xfId="154" builtinId="22"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -5080,6 +5097,7 @@
     <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -5451,6 +5469,7 @@
     <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -5781,11 +5800,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J309"/>
+  <dimension ref="A1:J310"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D102" sqref="D102"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6055,989 +6074,986 @@
         <v>488</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="42">
+    <row r="14" spans="1:7" ht="28">
       <c r="A14" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+    </row>
+    <row r="15" spans="1:7" ht="42">
+      <c r="A15" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>972</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28">
-      <c r="A15" s="19" t="s">
+    <row r="16" spans="1:7" ht="28">
+      <c r="A16" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B16" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="D15" s="20" t="s">
+      <c r="C16" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>978</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E16" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F16" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G16" s="26" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="8" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C17" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>979</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="56">
-      <c r="A17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>980</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>480</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="56">
+      <c r="A18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="42">
-      <c r="A18" s="27" t="s">
+    <row r="19" spans="1:10" ht="42">
+      <c r="A19" s="27" t="s">
         <v>499</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B19" s="28" t="s">
         <v>981</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="33" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F19" s="33" t="s">
         <v>497</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G19" s="56" t="s">
         <v>498</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="42">
-      <c r="A19" s="4" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="42">
+      <c r="A20" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C20" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>982</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" ht="28">
-      <c r="A20" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>983</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>480</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="28">
+      <c r="A21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="42">
-      <c r="A21" s="19" t="s">
+    <row r="22" spans="1:10" ht="42">
+      <c r="A22" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B22" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="D21" s="20" t="s">
+      <c r="C22" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>984</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="30">
-      <c r="A22" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>985</v>
       </c>
       <c r="E22" s="26" t="s">
         <v>480</v>
       </c>
       <c r="F22" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30">
+      <c r="A23" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>985</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G23" s="26" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="28">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:10" ht="28">
+      <c r="A24" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>986</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="42">
-      <c r="A24" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>987</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>480</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="42">
+      <c r="A25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="28">
-      <c r="A25" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>988</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="28">
       <c r="A26" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>515</v>
+        <v>152</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>464</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>480</v>
       </c>
       <c r="F26" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="28">
+      <c r="A27" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>989</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="F27" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G27" s="26" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="28">
-      <c r="A27" s="31" t="s">
+    <row r="28" spans="1:10" ht="28">
+      <c r="A28" s="31" t="s">
         <v>527</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B28" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="36" t="s">
+      <c r="C28" s="30"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F28" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G28" s="36" t="s">
         <v>528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="28">
-      <c r="A28" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>991</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="28">
       <c r="A29" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>464</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E29" s="26" t="s">
         <v>480</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="28">
       <c r="A30" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>464</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E30" s="26" t="s">
         <v>480</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28">
       <c r="A31" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>994</v>
+        <v>518</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>464</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>480</v>
       </c>
       <c r="F31" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="28">
+      <c r="A32" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>994</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>993</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="F32" s="26" t="s">
         <v>525</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G32" s="26" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="27" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B34" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>995</v>
-      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="4" t="s">
         <v>480</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="28">
-      <c r="A35" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>996</v>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>995</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>480</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28">
+      <c r="A36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="42">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>538</v>
-      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="42">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>480</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="42">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28" hidden="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11" t="s">
+    <row r="40" spans="1:7" ht="28" hidden="1">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="3" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" ht="42">
-      <c r="A41" s="4" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="42">
+      <c r="A42" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="C42" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>999</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="12" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B43" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" ht="28">
-      <c r="A43" s="4" t="s">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" ht="28">
+      <c r="A44" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G43" s="32" t="s">
+      <c r="G44" s="32" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:7">
+      <c r="A45" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" ht="42">
-      <c r="A45" s="29" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" ht="42">
+      <c r="A46" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B46" s="29" t="s">
         <v>1002</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>544</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="28">
-      <c r="A46" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>1001</v>
-      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="26" t="s">
         <v>480</v>
       </c>
       <c r="F46" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="28">
+      <c r="A47" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="F47" s="26" t="s">
         <v>546</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="G47" s="26" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="12" t="s">
+    <row r="48" spans="1:7">
+      <c r="A48" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B48" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="1:7" ht="42">
-      <c r="A48" s="4" t="s">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" ht="42">
+      <c r="A49" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="C49" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>1004</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="42">
-      <c r="A49" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>1005</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>553</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="28">
-      <c r="A50" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>1006</v>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="42">
+      <c r="A50" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>1005</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>553</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="42">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="28">
       <c r="A51" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>553</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="42">
       <c r="A52" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>553</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="42">
+      <c r="A53" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28">
-      <c r="A53" s="15" t="s">
+    <row r="54" spans="1:7" ht="28">
+      <c r="A54" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B54" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="D53" s="21" t="s">
+      <c r="C54" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="D54" s="21" t="s">
         <v>1009</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E54" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30">
-      <c r="A54" s="20" t="s">
+    <row r="55" spans="1:7" ht="30">
+      <c r="A55" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B55" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="D54" s="21" t="s">
+      <c r="C55" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>1010</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="E55" s="34" t="s">
         <v>565</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="F55" s="34" t="s">
         <v>566</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G55" s="34" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="28">
-      <c r="A55" s="19" t="s">
+    <row r="56" spans="1:7" ht="28">
+      <c r="A56" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B56" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="D55" s="19" t="s">
+      <c r="C56" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D56" s="19" t="s">
         <v>1011</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E56" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="F55" s="26" t="s">
+      <c r="F56" s="26" t="s">
         <v>568</v>
       </c>
-      <c r="G55" s="26" t="s">
+      <c r="G56" s="26" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="39" t="s">
+    <row r="57" spans="1:7">
+      <c r="A57" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B57" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="4" t="s">
+      <c r="C57" s="39"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="12" t="s">
+    <row r="58" spans="1:7">
+      <c r="A58" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B58" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" spans="1:7" ht="42">
-      <c r="A58" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>574</v>
-      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
     </row>
     <row r="59" spans="1:7" ht="42">
       <c r="A59" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>572</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="42">
       <c r="A60" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>572</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>579</v>
+        <v>575</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="42">
       <c r="A61" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>464</v>
@@ -7045,439 +7061,436 @@
       <c r="D61" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="42">
+      <c r="A62" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="F62" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G62" s="13" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="28">
-      <c r="A62" s="4" t="s">
+    <row r="63" spans="1:7" ht="28">
+      <c r="A63" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="D62" s="13" t="s">
+      <c r="C63" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="D63" s="13" t="s">
         <v>1015</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15">
-      <c r="A63" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C63" t="s">
-        <v>464</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1016</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>572</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>562</v>
+        <v>483</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="45">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15">
       <c r="A64" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>282</v>
+        <v>293</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="C64" t="s">
         <v>464</v>
       </c>
-      <c r="D64" s="43" t="s">
-        <v>1019</v>
+      <c r="D64" t="s">
+        <v>1016</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>572</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="28">
-      <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="45">
+      <c r="A65" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C65" t="s">
         <v>464</v>
       </c>
-      <c r="D65" t="s">
-        <v>1020</v>
+      <c r="D65" s="43" t="s">
+        <v>1019</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>572</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="28">
-      <c r="A66" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C66" s="47"/>
-      <c r="D66"/>
+      <c r="A66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C66" t="s">
+        <v>464</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1020</v>
+      </c>
       <c r="E66" s="4" t="s">
         <v>572</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="56">
-      <c r="A67" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>464</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>1018</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="28">
+      <c r="A67" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C67" s="47"/>
+      <c r="D67"/>
       <c r="E67" s="4" t="s">
         <v>572</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="28">
-      <c r="A68" s="15" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>1017</v>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="56">
+      <c r="A68" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>1018</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>572</v>
       </c>
       <c r="F68" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="28">
+      <c r="A69" s="15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="12" t="s">
+    <row r="70" spans="1:7">
+      <c r="A70" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B70" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" spans="1:7" ht="42">
-      <c r="A70" s="28" t="s">
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" spans="1:7" ht="42">
+      <c r="A71" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B71" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C71" s="28" t="s">
         <v>1111</v>
       </c>
-      <c r="D70" s="56"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-    </row>
-    <row r="71" spans="1:7" ht="42">
-      <c r="A71" s="2" t="s">
+      <c r="D71" s="56"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="55"/>
+    </row>
+    <row r="72" spans="1:7" ht="42">
+      <c r="A72" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>1115</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="42">
-      <c r="A72" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>1116</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="42">
-      <c r="A73" s="2" t="s">
-        <v>308</v>
+      <c r="A73" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="42">
       <c r="A74" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>91</v>
+        <v>308</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="42">
       <c r="A75" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="42">
-      <c r="A76" s="5" t="s">
-        <v>98</v>
+      <c r="A76" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F76" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="42">
+      <c r="A77" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="12" t="s">
+    <row r="78" spans="1:7">
+      <c r="A78" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B78" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-    </row>
-    <row r="78" spans="1:7" ht="42">
-      <c r="A78" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>606</v>
-      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
     </row>
     <row r="79" spans="1:7" ht="42">
       <c r="A79" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="42">
       <c r="A80" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="G80" t="s">
-        <v>610</v>
+        <v>607</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="42">
       <c r="A81" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G81" t="s">
         <v>610</v>
@@ -7485,284 +7498,288 @@
     </row>
     <row r="82" spans="1:7" ht="42">
       <c r="A82" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="70">
-      <c r="A83" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C83" s="28" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D83" s="49"/>
+        <v>611</v>
+      </c>
+      <c r="G82" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="42">
+      <c r="A83" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>977</v>
+      </c>
       <c r="E83" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F83" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="70">
+      <c r="A84" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D84" s="49"/>
+      <c r="E84" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G84" s="4" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="3" t="s">
+    <row r="85" spans="1:7">
+      <c r="A85" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="1:7" ht="42">
-      <c r="A85" s="5" t="s">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" ht="42">
+      <c r="A86" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="C86" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E86" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F86" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="12" t="s">
+    <row r="87" spans="1:7">
+      <c r="A87" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B87" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-    </row>
-    <row r="87" spans="1:7" ht="42">
-      <c r="A87" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>617</v>
-      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
     </row>
     <row r="88" spans="1:7" ht="42">
       <c r="A88" s="5" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>618</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="42">
-      <c r="A89" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>463</v>
+      <c r="A89" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>618</v>
       </c>
       <c r="F89" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="42">
+      <c r="A90" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="12" t="s">
+    <row r="91" spans="1:7">
+      <c r="A91" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B91" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-    </row>
-    <row r="91" spans="1:7" ht="28">
-      <c r="A91" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>626</v>
-      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
     </row>
     <row r="92" spans="1:7" ht="28">
       <c r="A92" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>480</v>
       </c>
       <c r="F92" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="28">
+      <c r="A93" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G93" s="4" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="3" t="s">
+    <row r="94" spans="1:7">
+      <c r="A94" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>1183</v>
       </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="1:7" ht="42">
-      <c r="A94" s="11" t="s">
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7" ht="42">
+      <c r="A95" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B95" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C94" s="41" t="s">
+      <c r="C95" s="41" t="s">
         <v>471</v>
       </c>
-      <c r="D94" s="23"/>
-      <c r="E94" s="4" t="s">
+      <c r="D95" s="23"/>
+      <c r="E95" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="F94" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="G94" s="32" t="s">
+      <c r="G95" s="32" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15">
-      <c r="A95" s="41" t="s">
+    <row r="96" spans="1:7" ht="15">
+      <c r="A96" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B96" s="41" t="s">
         <v>187</v>
-      </c>
-      <c r="C95" s="41"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="F95" s="26" t="s">
-        <v>633</v>
-      </c>
-      <c r="G95" s="26" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="28">
-      <c r="A96" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="B96" s="41" t="s">
-        <v>186</v>
       </c>
       <c r="C96" s="41"/>
       <c r="D96" s="23"/>
@@ -7770,18 +7787,18 @@
         <v>480</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G96" s="26" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="28">
       <c r="A97" s="41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B97" s="41" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C97" s="41"/>
       <c r="D97" s="23"/>
@@ -7789,18 +7806,18 @@
         <v>480</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>637</v>
-      </c>
-      <c r="G97" s="36" t="s">
-        <v>610</v>
+        <v>635</v>
+      </c>
+      <c r="G97" s="26" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="28">
       <c r="A98" s="41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B98" s="41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C98" s="41"/>
       <c r="D98" s="23"/>
@@ -7808,2598 +7825,2598 @@
         <v>480</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G98" s="36" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="28">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B99" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" s="41"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="F99" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="G99" s="36" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="28">
+      <c r="A100" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="59" t="s">
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="B100" s="59" t="s">
+      <c r="B101" s="59" t="s">
         <v>1178</v>
       </c>
-      <c r="C100" s="48"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="55" t="s">
+      <c r="C101" s="48"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="55" t="s">
         <v>565</v>
       </c>
-      <c r="F100" s="55" t="s">
+      <c r="F101" s="55" t="s">
         <v>1176</v>
       </c>
-      <c r="G100" s="55" t="s">
+      <c r="G101" s="55" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="28">
-      <c r="A101" s="37" t="s">
+    <row r="102" spans="1:7" ht="28">
+      <c r="A102" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="37" t="s">
+      <c r="B102" s="37" t="s">
         <v>639</v>
       </c>
-      <c r="C101" s="38" t="s">
+      <c r="C102" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="D101" s="48"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="55"/>
-    </row>
-    <row r="102" spans="1:7" ht="45">
-      <c r="A102" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="B102" s="49" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C102" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="D102" s="58" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E102" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="F102" s="49" t="s">
-        <v>810</v>
-      </c>
-      <c r="G102" s="49" t="s">
-        <v>811</v>
-      </c>
+      <c r="D102" s="48"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="55"/>
     </row>
     <row r="103" spans="1:7" ht="45">
       <c r="A103" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="B103" s="49" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C103" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="D103" s="58" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E103" s="49" t="s">
+        <v>548</v>
+      </c>
+      <c r="F103" s="49" t="s">
+        <v>810</v>
+      </c>
+      <c r="G103" s="49" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="45">
+      <c r="A104" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="49" t="s">
+      <c r="B104" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C103" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="D103" s="49" t="s">
+      <c r="C104" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="D104" s="49" t="s">
         <v>1189</v>
       </c>
-      <c r="E103" s="49" t="s">
+      <c r="E104" s="49" t="s">
         <v>565</v>
       </c>
-      <c r="F103" s="49" t="s">
+      <c r="F104" s="49" t="s">
         <v>808</v>
       </c>
-      <c r="G103" s="49" t="s">
+      <c r="G104" s="49" t="s">
         <v>809</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="28">
-      <c r="A104" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="28">
       <c r="A105" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>640</v>
+        <v>691</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="28">
       <c r="A106" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>194</v>
+      <c r="A109" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="56">
+        <v>646</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>1035</v>
+        <v>194</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>57</v>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="56">
+      <c r="A111" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>1035</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F113" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="28">
-      <c r="A114" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="B114" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="28">
+      <c r="A115" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="30" customHeight="1">
-      <c r="A115" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B115" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C115" s="28"/>
+      <c r="B115" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="D115" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F115" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="30" customHeight="1">
+      <c r="A116" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>464</v>
-      </c>
+      <c r="B116" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" s="28"/>
       <c r="D116" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>658</v>
+        <v>3</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="42">
-      <c r="A118" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C118" s="28" t="s">
-        <v>665</v>
-      </c>
-      <c r="D118" s="43"/>
+        <v>659</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>1044</v>
+      </c>
       <c r="E118" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F118" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="42">
+      <c r="A119" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G118" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="28">
-      <c r="A119" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>1045</v>
-      </c>
+      <c r="B119" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>665</v>
+      </c>
+      <c r="D119" s="43"/>
       <c r="E119" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F119" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="28">
+      <c r="A120" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G119" s="4" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="42">
-      <c r="A120" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B120" s="39" t="s">
-        <v>664</v>
-      </c>
-      <c r="C120" s="30" t="s">
-        <v>666</v>
-      </c>
-      <c r="D120" s="50"/>
+      <c r="B120" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>1045</v>
+      </c>
       <c r="E120" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F120" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="42">
+      <c r="A121" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G120" s="4" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="45">
-      <c r="A121" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C121" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="D121" s="49" t="s">
-        <v>1046</v>
-      </c>
+      <c r="B121" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="D121" s="50"/>
       <c r="E121" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>668</v>
+        <v>6</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="45">
       <c r="A122" s="2" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C122" s="49" t="s">
         <v>464</v>
       </c>
       <c r="D122" s="49" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="45">
-      <c r="A123" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>122</v>
+      <c r="A123" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C123" s="49" t="s">
         <v>464</v>
       </c>
       <c r="D123" s="49" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="45">
-      <c r="A124" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>206</v>
+      <c r="A124" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="C124" s="49" t="s">
         <v>464</v>
       </c>
       <c r="D124" s="49" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="45">
       <c r="A125" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C125" s="49" t="s">
         <v>464</v>
       </c>
       <c r="D125" s="49" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="45">
       <c r="A126" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C126" s="49" t="s">
         <v>464</v>
       </c>
       <c r="D126" s="49" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="28">
-      <c r="A127" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>687</v>
-      </c>
-      <c r="C127" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="D127" s="51"/>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="45">
+      <c r="A127" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C127" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="D127" s="49" t="s">
+        <v>1048</v>
+      </c>
       <c r="E127" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="30">
-      <c r="A128" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="B128" s="49" t="s">
-        <v>688</v>
-      </c>
-      <c r="C128" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="D128" s="49" t="s">
-        <v>1052</v>
-      </c>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="28">
+      <c r="A128" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D128" s="51"/>
       <c r="E128" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C129" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="D129" s="51"/>
+    <row r="129" spans="1:7" ht="30">
+      <c r="A129" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="B129" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="C129" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="D129" s="49" t="s">
+        <v>1052</v>
+      </c>
       <c r="E129" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="45">
-      <c r="A130" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C130" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="D130" s="49" t="s">
-        <v>1042</v>
-      </c>
+    <row r="130" spans="1:7">
+      <c r="A130" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D130" s="51"/>
       <c r="E130" s="4" t="s">
         <v>565</v>
       </c>
       <c r="F130" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="45">
+      <c r="A131" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C131" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="D131" s="49" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="F131" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="G130" s="4" t="s">
+      <c r="G131" s="4" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="30">
-      <c r="A131" s="24" t="s">
+    <row r="132" spans="1:7" ht="30">
+      <c r="A132" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="B131" s="24" t="s">
+      <c r="B132" s="24" t="s">
         <v>689</v>
       </c>
-      <c r="C131" s="24"/>
-      <c r="D131" s="51"/>
-      <c r="E131" s="40" t="s">
+      <c r="C132" s="24"/>
+      <c r="D132" s="51"/>
+      <c r="E132" s="40" t="s">
         <v>565</v>
       </c>
-      <c r="F131" s="40" t="s">
+      <c r="F132" s="40" t="s">
         <v>685</v>
       </c>
-      <c r="G131" s="40" t="s">
+      <c r="G132" s="40" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="12" t="s">
+    <row r="133" spans="1:7">
+      <c r="A133" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B133" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
-    </row>
-    <row r="133" spans="1:7" ht="28">
-      <c r="A133" s="41" t="s">
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+    </row>
+    <row r="134" spans="1:7" ht="28">
+      <c r="A134" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="B133" s="41" t="s">
+      <c r="B134" s="41" t="s">
         <v>639</v>
       </c>
-      <c r="C133" s="24" t="s">
+      <c r="C134" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="D133" s="51" t="s">
+      <c r="D134" s="51" t="s">
         <v>1054</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="45">
-      <c r="A134" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B134" s="8"/>
-      <c r="C134" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="D134" s="49" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="45">
       <c r="A135" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B135" s="8"/>
       <c r="C135" s="49" t="s">
         <v>464</v>
       </c>
       <c r="D135" s="49" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>690</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="45">
       <c r="A136" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B136" s="8"/>
       <c r="C136" s="49" t="s">
         <v>464</v>
       </c>
       <c r="D136" s="49" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>690</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="45">
       <c r="A137" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B137" s="8"/>
       <c r="C137" s="49" t="s">
         <v>464</v>
       </c>
       <c r="D137" s="49" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>690</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="45">
       <c r="A138" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B138" s="8"/>
       <c r="C138" s="49" t="s">
         <v>464</v>
       </c>
       <c r="D138" s="49" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>690</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="45">
       <c r="A139" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B139" s="8"/>
       <c r="C139" s="49" t="s">
         <v>464</v>
       </c>
       <c r="D139" s="49" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>690</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>649</v>
+        <v>696</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="45">
       <c r="A140" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="49" t="s">
         <v>464</v>
       </c>
       <c r="D140" s="49" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>690</v>
       </c>
       <c r="F140" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="45">
+      <c r="A141" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B141" s="8"/>
+      <c r="C141" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="D141" s="49" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="F141" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="G140" s="4" t="s">
+      <c r="G141" s="4" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="28">
-      <c r="A141" s="12" t="s">
+    <row r="142" spans="1:7" ht="28">
+      <c r="A142" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B142" s="12" t="s">
         <v>1184</v>
       </c>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
-    </row>
-    <row r="142" spans="1:7" ht="28">
-      <c r="A142" s="11" t="s">
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+    </row>
+    <row r="143" spans="1:7" ht="28">
+      <c r="A143" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B143" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="C142" s="38" t="s">
+      <c r="C143" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="D142" s="48" t="s">
+      <c r="D143" s="48" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="4" t="s">
+    <row r="144" spans="1:7">
+      <c r="A144" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B144" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D143" s="4" t="s">
+      <c r="C144" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>1063</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="28">
-      <c r="A144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>1064</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="B145" s="4"/>
+        <v>698</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="28">
+      <c r="A145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="C145" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A146" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B146" s="4"/>
       <c r="C146" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>10</v>
+        <v>702</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="2" t="s">
-        <v>219</v>
+        <v>10</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>705</v>
+        <v>10</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F148" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="G148" s="6" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="G148" s="6" t="s">
+      <c r="G149" s="6" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="28">
-      <c r="A149" s="12" t="s">
+    <row r="150" spans="1:7" ht="28">
+      <c r="A150" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B150" s="12" t="s">
         <v>1184</v>
       </c>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-    </row>
-    <row r="150" spans="1:7" ht="28">
-      <c r="A150" s="11" t="s">
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+    </row>
+    <row r="151" spans="1:7" ht="28">
+      <c r="A151" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B150" s="42" t="s">
+      <c r="B151" s="42" t="s">
         <v>639</v>
       </c>
-      <c r="C150" s="38" t="s">
+      <c r="C151" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="D150" s="55" t="s">
+      <c r="D151" s="55" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="42">
-      <c r="A151" s="2" t="s">
+    <row r="152" spans="1:7" ht="42">
+      <c r="A152" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B152" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C151" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D151" s="7" t="s">
+      <c r="C152" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D152" s="7" t="s">
         <v>1069</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="42">
-      <c r="A152" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>1071</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>709</v>
       </c>
       <c r="F152" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="42">
+      <c r="A153" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="F153" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="G152" s="4" t="s">
+      <c r="G153" s="4" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="28">
-      <c r="A153" s="11" t="s">
+    <row r="154" spans="1:7" ht="28">
+      <c r="A154" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B153" s="42" t="s">
+      <c r="B154" s="42" t="s">
         <v>639</v>
       </c>
-      <c r="C153" s="38" t="s">
+      <c r="C154" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="D153" s="48"/>
-    </row>
-    <row r="154" spans="1:7" ht="45">
-      <c r="A154" s="49" t="s">
+      <c r="D154" s="48"/>
+    </row>
+    <row r="155" spans="1:7" ht="45">
+      <c r="A155" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="B154" s="49" t="s">
+      <c r="B155" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="C154" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="D154" s="43" t="s">
+      <c r="C155" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="D155" s="43" t="s">
         <v>1071</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="30">
-      <c r="A155" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="B155" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="C155" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="D155" s="43" t="s">
-        <v>1072</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>714</v>
       </c>
       <c r="F155" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="30">
+      <c r="A156" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="B156" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="C156" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="D156" s="43" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="F156" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="G155" s="4" t="s">
+      <c r="G156" s="4" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="12" t="s">
+    <row r="157" spans="1:7">
+      <c r="A157" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B157" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
-    </row>
-    <row r="157" spans="1:7" ht="42">
-      <c r="A157" s="11" t="s">
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+    </row>
+    <row r="158" spans="1:7" ht="42">
+      <c r="A158" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B158" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="C157" s="38" t="s">
+      <c r="C158" s="38" t="s">
         <v>473</v>
       </c>
-      <c r="D157" s="48"/>
-    </row>
-    <row r="158" spans="1:7" ht="28">
-      <c r="A158" s="4" t="s">
+      <c r="D158" s="48"/>
+    </row>
+    <row r="159" spans="1:7" ht="28">
+      <c r="A159" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B159" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="C159" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>1073</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="28">
-      <c r="A159" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B159" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C159" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="D159" s="20" t="s">
-        <v>1087</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="28">
       <c r="A160" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B160" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C160" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D160" s="20" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="28">
+      <c r="A161" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B160" s="15" t="s">
+      <c r="B161" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C160" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="D160" s="20" t="s">
+      <c r="C161" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D161" s="20" t="s">
         <v>1088</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E161" t="s">
         <v>11</v>
       </c>
-      <c r="F160" s="4" t="s">
+      <c r="F161" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="G160" s="4" t="s">
+      <c r="G161" s="4" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="4" t="s">
+    <row r="162" spans="1:7">
+      <c r="A162" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B162" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="C162" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>1074</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="28">
-      <c r="A162" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="B162" s="15" t="s">
-        <v>768</v>
-      </c>
-      <c r="C162" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="D162" s="20" t="s">
-        <v>1083</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="28">
       <c r="A163" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C163" s="20" t="s">
         <v>464</v>
       </c>
       <c r="D163" s="20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="28">
-      <c r="A164" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="C164" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="D164" s="22" t="s">
-        <v>1086</v>
+      <c r="A164" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D164" s="20" t="s">
+        <v>1084</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="28">
-      <c r="A165" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="B165" s="15" t="s">
-        <v>771</v>
-      </c>
-      <c r="C165" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="D165" s="20" t="s">
-        <v>1085</v>
+      <c r="A165" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C165" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>1086</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F165" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="28">
+      <c r="A166" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="C166" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D166" s="20" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="F166" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="G165" s="4" t="s">
+      <c r="G166" s="4" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="84">
-      <c r="A166" s="11" t="s">
+    <row r="167" spans="1:7" ht="84">
+      <c r="A167" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B167" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C167" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="D166" s="33" t="s">
+      <c r="D167" s="33" t="s">
         <v>1077</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="42">
-      <c r="A167" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>1076</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="42">
       <c r="A168" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="42">
       <c r="A169" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="42">
       <c r="A170" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="45">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="42">
       <c r="A171" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C171" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="D171" s="49" t="s">
-        <v>1081</v>
+        <v>241</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>1080</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="45">
       <c r="A172" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C172" s="49" t="s">
         <v>464</v>
       </c>
       <c r="D172" s="49" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="42">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="45">
       <c r="A173" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>1082</v>
+        <v>261</v>
+      </c>
+      <c r="C173" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="D173" s="49" t="s">
+        <v>1078</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="28">
-      <c r="A174" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="B174" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C174" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="D174" s="20" t="s">
-        <v>1089</v>
+        <v>736</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="42">
+      <c r="A174" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>1082</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="28">
-      <c r="A175" s="17" t="s">
-        <v>13</v>
+      <c r="A175" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C175" s="20" t="s">
         <v>464</v>
       </c>
       <c r="D175" s="20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F175" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="28">
+      <c r="A176" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G175" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="28">
-      <c r="A176" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="B176" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C176" s="20" t="s">
         <v>464</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="G176" s="4" t="s">
-        <v>744</v>
+        <v>13</v>
+      </c>
+      <c r="G176" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="28">
       <c r="A177" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C177" s="20" t="s">
         <v>464</v>
       </c>
       <c r="D177" s="20" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="28">
       <c r="A178" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C178" s="20" t="s">
         <v>464</v>
       </c>
       <c r="D178" s="20" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="28">
       <c r="A179" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C179" s="20" t="s">
         <v>464</v>
       </c>
       <c r="D179" s="20" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="28">
-      <c r="A180" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="B180" s="39" t="s">
-        <v>779</v>
-      </c>
-      <c r="C180" s="47"/>
-      <c r="D180"/>
+      <c r="A180" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C180" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D180" s="20" t="s">
+        <v>1094</v>
+      </c>
       <c r="E180" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="28">
+      <c r="A181" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B181" s="39" t="s">
+        <v>779</v>
+      </c>
+      <c r="C181" s="47"/>
+      <c r="D181"/>
+      <c r="E181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="G180" s="4" t="s">
+      <c r="G181" s="4" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="12" t="s">
+    <row r="182" spans="1:7">
+      <c r="A182" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="B181" s="12" t="s">
+      <c r="B182" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C181" s="12"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="12"/>
-      <c r="G181" s="12"/>
-    </row>
-    <row r="182" spans="1:7" ht="28">
-      <c r="A182" s="4" t="s">
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+    </row>
+    <row r="183" spans="1:7" ht="28">
+      <c r="A183" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B183" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C182" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D182" s="4" t="s">
+      <c r="C183" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D183" s="4" t="s">
         <v>1095</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="G182" s="4" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="60">
-      <c r="A183" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C183" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="D183" s="49" t="s">
-        <v>1096</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="60">
       <c r="A184" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C184" s="49" t="s">
         <v>464</v>
       </c>
       <c r="D184" s="49" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="28">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="60">
       <c r="A185" s="4" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C185" s="49" t="s">
         <v>464</v>
       </c>
       <c r="D185" s="49" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F185" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="28">
+      <c r="A186" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G185" s="4" t="s">
+      <c r="B186" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C186" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="D186" s="49" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" s="4" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="12" t="s">
+    <row r="187" spans="1:7">
+      <c r="A187" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B186" s="12" t="s">
+      <c r="B187" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C186" s="12"/>
-      <c r="D186" s="12"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="12"/>
-      <c r="G186" s="12"/>
-    </row>
-    <row r="187" spans="1:7" ht="28">
-      <c r="A187" s="2" t="s">
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+    </row>
+    <row r="188" spans="1:7" ht="28">
+      <c r="A188" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B188" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="C188" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>1099</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="D188" s="6" t="s">
-        <v>1100</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>1101</v>
+        <v>75</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>1100</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="42">
-      <c r="A190" s="2" t="s">
-        <v>78</v>
+        <v>783</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="D190" s="18" t="s">
-        <v>1103</v>
+        <v>77</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>1101</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="56">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="42">
       <c r="A191" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="D191" s="6" t="s">
-        <v>1102</v>
+      <c r="D191" s="18" t="s">
+        <v>1103</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F191" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="56">
+      <c r="A192" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F192" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="G191" s="2" t="s">
+      <c r="G192" s="2" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="12" t="s">
+    <row r="193" spans="1:7">
+      <c r="A193" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="B192" s="12" t="s">
+      <c r="B193" s="12" t="s">
         <v>1185</v>
       </c>
-      <c r="C192" s="12"/>
-      <c r="D192" s="12"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="12"/>
-      <c r="G192" s="12"/>
-    </row>
-    <row r="193" spans="1:7" ht="42">
-      <c r="A193" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B193" s="4"/>
-      <c r="C193" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D193" s="18" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="F193" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="G193" s="4" t="s">
-        <v>791</v>
-      </c>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
     </row>
     <row r="194" spans="1:7" ht="42">
       <c r="A194" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B194" s="4"/>
-      <c r="C194" s="22" t="s">
+      <c r="C194" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D194" s="18" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="42">
       <c r="A195" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B195" s="4"/>
-      <c r="C195" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>1105</v>
+      <c r="C195" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D195" s="18" t="s">
+        <v>1104</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F195" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="42">
+      <c r="A196" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B196" s="4"/>
+      <c r="C196" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="F196" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="G195" s="4" t="s">
+      <c r="G196" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="28">
-      <c r="A196" s="39" t="s">
+    <row r="197" spans="1:7" ht="28">
+      <c r="A197" s="39" t="s">
         <v>322</v>
       </c>
-      <c r="B196" s="39" t="s">
+      <c r="B197" s="39" t="s">
         <v>639</v>
       </c>
-      <c r="C196" s="30" t="s">
+      <c r="C197" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="D196" s="50"/>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="12" t="s">
+      <c r="D197" s="50"/>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="B197" s="12" t="s">
+      <c r="B198" s="12" t="s">
         <v>1186</v>
       </c>
-      <c r="C197" s="12"/>
-      <c r="D197" s="12"/>
-      <c r="E197" s="12"/>
-      <c r="F197" s="12"/>
-      <c r="G197" s="12"/>
-    </row>
-    <row r="198" spans="1:7" ht="56">
-      <c r="A198" s="27" t="s">
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+    </row>
+    <row r="199" spans="1:7" ht="56">
+      <c r="A199" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B198" s="28" t="s">
+      <c r="B199" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C198" s="28" t="s">
+      <c r="C199" s="28" t="s">
         <v>1110</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D199" s="2" t="s">
         <v>1107</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="F198" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="42">
-      <c r="A199" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>1106</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C200" s="28"/>
-      <c r="D200" s="2"/>
+        <v>797</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="42">
+      <c r="A200" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>1106</v>
+      </c>
       <c r="E200" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="G200" s="33" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="70">
-      <c r="A201" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="B201" s="28" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C201" s="28" t="s">
-        <v>1109</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C201" s="28"/>
       <c r="D201" s="2"/>
       <c r="E201" s="4" t="s">
         <v>592</v>
       </c>
       <c r="F201" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="G201" s="33" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="70">
+      <c r="A202" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="B202" s="28" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C202" s="28" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="F202" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="G201" s="2" t="s">
+      <c r="G202" s="2" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="12" t="s">
+    <row r="203" spans="1:7">
+      <c r="A203" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="B202" s="12" t="s">
+      <c r="B203" s="12" t="s">
         <v>1187</v>
       </c>
-      <c r="C202" s="12"/>
-      <c r="D202" s="12"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="12"/>
-      <c r="G202" s="12"/>
-    </row>
-    <row r="203" spans="1:7" ht="56">
-      <c r="A203" s="4" t="s">
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+    </row>
+    <row r="204" spans="1:7" ht="56">
+      <c r="A204" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B204" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C203" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D203" s="6" t="s">
+      <c r="C204" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D204" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="E203" s="4" t="s">
+      <c r="E204" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="F203" s="4" t="s">
+      <c r="F204" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="G203" s="4" t="s">
+      <c r="G204" s="4" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="42">
-      <c r="A204" s="6" t="s">
+    <row r="205" spans="1:7" ht="42">
+      <c r="A205" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B205" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="C204" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="D204" s="6" t="s">
+      <c r="C205" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D205" s="6" t="s">
         <v>1166</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="F204" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="G204" s="6" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="D205" s="18" t="s">
-        <v>1171</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>812</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="42">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="D206" s="6" t="s">
-        <v>1169</v>
+      <c r="D206" s="18" t="s">
+        <v>1171</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>812</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="7" t="s">
-        <v>105</v>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="42">
+      <c r="A207" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>464</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>812</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="28">
-      <c r="A208" s="6" t="s">
-        <v>107</v>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>464</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>812</v>
       </c>
       <c r="F208" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="28">
+      <c r="A209" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="F209" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="G208" s="6" t="s">
+      <c r="G209" s="6" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="12" t="s">
+    <row r="210" spans="1:7">
+      <c r="A210" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="B209" s="12" t="s">
+      <c r="B210" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C209" s="12"/>
-      <c r="D209" s="12"/>
-      <c r="E209" s="12"/>
-      <c r="F209" s="12"/>
-      <c r="G209" s="12"/>
-    </row>
-    <row r="210" spans="1:7" ht="28">
-      <c r="A210" s="46" t="s">
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+    </row>
+    <row r="211" spans="1:7" ht="28">
+      <c r="A211" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="B210" s="46" t="s">
+      <c r="B211" s="46" t="s">
         <v>639</v>
       </c>
-      <c r="C210" s="46"/>
-      <c r="D210" s="54" t="s">
+      <c r="C211" s="46"/>
+      <c r="D211" s="54" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="6" t="s">
+    <row r="212" spans="1:7">
+      <c r="A212" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B212" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C211" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="D211" s="6" t="s">
+      <c r="C212" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D212" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="E211" s="4" t="s">
+      <c r="E212" s="4" t="s">
         <v>823</v>
       </c>
-      <c r="F211" s="4" t="s">
+      <c r="F212" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="G211" s="6" t="s">
+      <c r="G212" s="6" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15">
-      <c r="A212" s="22" t="s">
+    <row r="213" spans="1:7" ht="15">
+      <c r="A213" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="B212" s="22" t="s">
+      <c r="B213" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="C212" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="D212" s="22" t="s">
+      <c r="C213" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D213" s="22" t="s">
         <v>1163</v>
       </c>
-      <c r="E212" s="26" t="s">
+      <c r="E213" s="26" t="s">
         <v>823</v>
       </c>
-      <c r="F212" s="26" t="s">
+      <c r="F213" s="26" t="s">
         <v>826</v>
       </c>
-      <c r="G212" s="34" t="s">
+      <c r="G213" s="34" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="28">
-      <c r="A213" s="6" t="s">
+    <row r="214" spans="1:7" ht="28">
+      <c r="A214" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B214" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C213" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="D213" s="6" t="s">
+      <c r="C214" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D214" s="6" t="s">
         <v>1164</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="G213" s="6" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="56">
-      <c r="A214" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="D214" s="6" t="s">
-        <v>1165</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>823</v>
       </c>
       <c r="F214" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="56">
+      <c r="A215" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="F215" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="G214" s="4" t="s">
+      <c r="G215" s="4" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
-      <c r="A215" s="12" t="s">
+    <row r="216" spans="1:7">
+      <c r="A216" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B215" s="12" t="s">
+      <c r="B216" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C215" s="12"/>
-      <c r="D215" s="12"/>
-      <c r="E215" s="12"/>
-      <c r="F215" s="12"/>
-      <c r="G215" s="12"/>
-    </row>
-    <row r="216" spans="1:7" ht="56">
-      <c r="A216" s="28" t="s">
+      <c r="C216" s="12"/>
+      <c r="D216" s="12"/>
+      <c r="E216" s="12"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+    </row>
+    <row r="217" spans="1:7" ht="56">
+      <c r="A217" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B216" s="11" t="s">
+      <c r="B217" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="C216" s="24" t="s">
+      <c r="C217" s="24" t="s">
         <v>474</v>
       </c>
-      <c r="D216" s="51" t="s">
+      <c r="D217" s="51" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="28">
-      <c r="A217" s="2" t="s">
+    <row r="218" spans="1:7" ht="28">
+      <c r="A218" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D217" s="2" t="s">
+      <c r="C218" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>1159</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F217" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="A218" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D218" s="53" t="s">
-        <v>1160</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="5" t="s">
-        <v>114</v>
+        <v>475</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>1161</v>
+      <c r="D219" s="53" t="s">
+        <v>1160</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F220" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F221" s="4" t="s">
         <v>837</v>
       </c>
-      <c r="G220" s="2" t="s">
+      <c r="G221" s="2" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
-      <c r="A221" s="12" t="s">
+    <row r="222" spans="1:7">
+      <c r="A222" s="12" t="s">
         <v>839</v>
       </c>
-      <c r="B221" s="12" t="s">
+      <c r="B222" s="12" t="s">
         <v>1188</v>
       </c>
-      <c r="C221" s="12"/>
-      <c r="D221" s="12"/>
-      <c r="E221" s="12"/>
-      <c r="F221" s="12"/>
-      <c r="G221" s="12"/>
-    </row>
-    <row r="222" spans="1:7" ht="15">
-      <c r="A222" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="B222" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="C222" s="24"/>
-      <c r="D222" s="21"/>
-      <c r="E222" s="34" t="s">
-        <v>839</v>
-      </c>
-      <c r="F222" s="34" t="s">
-        <v>840</v>
-      </c>
-      <c r="G222" s="34" t="s">
-        <v>841</v>
-      </c>
+      <c r="C222" s="12"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12"/>
+      <c r="G222" s="12"/>
     </row>
     <row r="223" spans="1:7" ht="15">
       <c r="A223" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B223" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C223" s="24"/>
       <c r="D223" s="21"/>
@@ -10407,18 +10424,18 @@
         <v>839</v>
       </c>
       <c r="F223" s="34" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G223" s="34" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="15">
       <c r="A224" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B224" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C224" s="24"/>
       <c r="D224" s="21"/>
@@ -10426,18 +10443,18 @@
         <v>839</v>
       </c>
       <c r="F224" s="34" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G224" s="34" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="15">
       <c r="A225" s="24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B225" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C225" s="24"/>
       <c r="D225" s="21"/>
@@ -10445,18 +10462,18 @@
         <v>839</v>
       </c>
       <c r="F225" s="34" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G225" s="34" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="15">
       <c r="A226" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B226" s="24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C226" s="24"/>
       <c r="D226" s="21"/>
@@ -10464,85 +10481,85 @@
         <v>839</v>
       </c>
       <c r="F226" s="34" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G226" s="34" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="15">
-      <c r="A227" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="B227" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="C227" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="D227" s="22"/>
+      <c r="A227" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B227" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="C227" s="24"/>
+      <c r="D227" s="21"/>
       <c r="E227" s="34" t="s">
         <v>839</v>
       </c>
       <c r="F227" s="34" t="s">
+        <v>848</v>
+      </c>
+      <c r="G227" s="34" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="15">
+      <c r="A228" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="B228" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C228" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D228" s="22"/>
+      <c r="E228" s="34" t="s">
+        <v>839</v>
+      </c>
+      <c r="F228" s="34" t="s">
         <v>850</v>
       </c>
-      <c r="G227" s="34" t="s">
+      <c r="G228" s="34" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="12" t="s">
+    <row r="229" spans="1:7">
+      <c r="A229" s="12" t="s">
         <v>852</v>
       </c>
-      <c r="B228" s="12" t="s">
+      <c r="B229" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C228" s="12"/>
-      <c r="D228" s="12"/>
-      <c r="E228" s="12"/>
-      <c r="F228" s="12"/>
-      <c r="G228" s="12"/>
-    </row>
-    <row r="229" spans="1:7" ht="28">
-      <c r="A229" s="24" t="s">
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
+      <c r="E229" s="12"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="12"/>
+    </row>
+    <row r="230" spans="1:7" ht="28">
+      <c r="A230" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="B229" s="11" t="s">
+      <c r="B230" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="C229" s="24" t="s">
+      <c r="C230" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="D229" s="35" t="s">
+      <c r="D230" s="35" t="s">
         <v>1150</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="B230" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C230" s="11"/>
-      <c r="D230" s="4"/>
-      <c r="E230" s="4" t="s">
-        <v>854</v>
-      </c>
-      <c r="F230" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="G230" s="4" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C231" s="11"/>
       <c r="D231" s="4"/>
@@ -10550,127 +10567,127 @@
         <v>854</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>705</v>
+        <v>855</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="28">
-      <c r="A232" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>1151</v>
-      </c>
+        <v>856</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C232" s="11"/>
+      <c r="D232" s="4"/>
       <c r="E232" s="4" t="s">
         <v>854</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>858</v>
+        <v>705</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="28">
       <c r="A233" s="4" t="s">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>854</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>14</v>
+        <v>858</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>854</v>
       </c>
       <c r="F234" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G234" s="4" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="28">
-      <c r="A235" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="B235" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="D235" s="4"/>
+        <v>464</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>1153</v>
+      </c>
       <c r="E235" s="4" t="s">
         <v>854</v>
       </c>
       <c r="F235" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="28">
+      <c r="A236" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G235" s="4" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" ht="42">
-      <c r="A236" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="B236" s="11" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C236" s="11"/>
+      <c r="B236" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>853</v>
+      </c>
       <c r="D236" s="4"/>
       <c r="E236" s="4" t="s">
         <v>854</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>863</v>
+        <v>16</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="42">
       <c r="A237" s="11" t="s">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C237" s="11"/>
       <c r="D237" s="4"/>
@@ -10678,758 +10695,758 @@
         <v>854</v>
       </c>
       <c r="F237" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G237" s="4" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>1154</v>
-      </c>
+      <c r="B238" s="11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C238" s="11"/>
+      <c r="D238" s="4"/>
       <c r="E238" s="4" t="s">
         <v>854</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>866</v>
+        <v>17</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B239" s="11" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C239" s="11"/>
-      <c r="D239" s="4"/>
+      <c r="A239" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>1154</v>
+      </c>
       <c r="E239" s="4" t="s">
         <v>854</v>
       </c>
       <c r="F239" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G239" s="4" t="s">
+      <c r="B240" s="11" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C240" s="11"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G240" s="4" t="s">
         <v>868</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" ht="28">
-      <c r="A240" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C240" s="15" t="s">
-        <v>777</v>
-      </c>
-      <c r="D240" s="15"/>
-      <c r="E240" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F240" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="G240" s="4" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="28">
       <c r="A241" s="4" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C241" s="15" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D241" s="15"/>
       <c r="E241" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F241" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="28">
+      <c r="A242" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C242" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="D242" s="15"/>
+      <c r="E242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F242" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="G241" s="4" t="s">
+      <c r="G242" s="4" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
-      <c r="A242" s="12" t="s">
+    <row r="243" spans="1:7">
+      <c r="A243" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="B242" s="12" t="s">
+      <c r="B243" s="12" t="s">
         <v>1186</v>
       </c>
-      <c r="C242" s="12"/>
-      <c r="D242" s="12"/>
-      <c r="E242" s="12"/>
-      <c r="F242" s="12"/>
-      <c r="G242" s="12"/>
-    </row>
-    <row r="243" spans="1:7" ht="28">
-      <c r="A243" s="24" t="s">
+      <c r="C243" s="12"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
+      <c r="F243" s="12"/>
+      <c r="G243" s="12"/>
+    </row>
+    <row r="244" spans="1:7" ht="28">
+      <c r="A244" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="B243" s="24" t="s">
+      <c r="B244" s="24" t="s">
         <v>639</v>
       </c>
-      <c r="C243" s="24"/>
-      <c r="D243" s="21"/>
-      <c r="E243" s="34" t="s">
+      <c r="C244" s="24"/>
+      <c r="D244" s="21"/>
+      <c r="E244" s="34" t="s">
         <v>869</v>
       </c>
-      <c r="F243" s="34" t="s">
+      <c r="F244" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="G243" s="34" t="s">
+      <c r="G244" s="34" t="s">
         <v>871</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" ht="42">
-      <c r="A244" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D244" s="4" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="F244" s="4" t="s">
-        <v>872</v>
-      </c>
-      <c r="G244" s="4" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="42">
       <c r="A245" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>869</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="42">
       <c r="A246" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>190</v>
+        <v>368</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>869</v>
       </c>
       <c r="F246" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="42">
+      <c r="A247" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E247" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="F247" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="G246" s="4" t="s">
+      <c r="G247" s="4" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" hidden="1">
-      <c r="A247" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="B247" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="C247" s="24"/>
-      <c r="D247" s="24"/>
     </row>
     <row r="248" spans="1:7" hidden="1">
       <c r="A248" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B248" s="24" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C248" s="24"/>
       <c r="D248" s="24"/>
     </row>
     <row r="249" spans="1:7" hidden="1">
       <c r="A249" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B249" s="24" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C249" s="24"/>
       <c r="D249" s="24"/>
     </row>
     <row r="250" spans="1:7" hidden="1">
       <c r="A250" s="24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B250" s="24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C250" s="24"/>
       <c r="D250" s="24"/>
     </row>
     <row r="251" spans="1:7" hidden="1">
       <c r="A251" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B251" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C251" s="24"/>
       <c r="D251" s="24"/>
     </row>
     <row r="252" spans="1:7" hidden="1">
       <c r="A252" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B252" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C252" s="24"/>
       <c r="D252" s="24"/>
     </row>
     <row r="253" spans="1:7" hidden="1">
       <c r="A253" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="C253" s="24"/>
       <c r="D253" s="24"/>
     </row>
     <row r="254" spans="1:7" hidden="1">
       <c r="A254" s="24" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B254" s="24" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C254" s="24"/>
       <c r="D254" s="24"/>
     </row>
     <row r="255" spans="1:7" hidden="1">
       <c r="A255" s="24" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B255" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C255" s="24"/>
       <c r="D255" s="24"/>
     </row>
     <row r="256" spans="1:7" hidden="1">
       <c r="A256" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B256" s="24" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="C256" s="24"/>
       <c r="D256" s="24"/>
     </row>
     <row r="257" spans="1:7" hidden="1">
       <c r="A257" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B257" s="24" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C257" s="24"/>
       <c r="D257" s="24"/>
     </row>
     <row r="258" spans="1:7" hidden="1">
       <c r="A258" s="24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B258" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C258" s="24"/>
       <c r="D258" s="24"/>
     </row>
     <row r="259" spans="1:7" hidden="1">
       <c r="A259" s="24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B259" s="24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C259" s="24"/>
       <c r="D259" s="24"/>
     </row>
     <row r="260" spans="1:7" hidden="1">
       <c r="A260" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B260" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C260" s="24"/>
       <c r="D260" s="24"/>
     </row>
-    <row r="261" spans="1:7">
-      <c r="A261" s="12" t="s">
+    <row r="261" spans="1:7" hidden="1">
+      <c r="A261" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="B261" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="C261" s="24"/>
+      <c r="D261" s="24"/>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="B261" s="12" t="s">
+      <c r="B262" s="12" t="s">
         <v>1186</v>
       </c>
-      <c r="C261" s="12"/>
-      <c r="D261" s="12"/>
-    </row>
-    <row r="262" spans="1:7" ht="98">
-      <c r="A262" s="38" t="s">
+      <c r="C262" s="12"/>
+      <c r="D262" s="12"/>
+    </row>
+    <row r="263" spans="1:7" ht="98">
+      <c r="A263" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="B262" s="38" t="s">
+      <c r="B263" s="38" t="s">
         <v>639</v>
       </c>
-      <c r="C262" s="38" t="s">
+      <c r="C263" s="38" t="s">
         <v>1122</v>
       </c>
-      <c r="D262" s="48" t="s">
+      <c r="D263" s="48" t="s">
         <v>1121</v>
       </c>
-      <c r="E262" s="34" t="s">
-        <v>878</v>
-      </c>
-      <c r="F262" s="34" t="s">
-        <v>879</v>
-      </c>
-      <c r="G262" s="34" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="42">
-      <c r="A263" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="B263" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="C263" s="38" t="s">
-        <v>639</v>
-      </c>
-      <c r="D263" s="44"/>
       <c r="E263" s="34" t="s">
         <v>878</v>
       </c>
       <c r="F263" s="34" t="s">
+        <v>879</v>
+      </c>
+      <c r="G263" s="34" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="42">
+      <c r="A264" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="B264" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="C264" s="38" t="s">
+        <v>639</v>
+      </c>
+      <c r="D264" s="44"/>
+      <c r="E264" s="34" t="s">
+        <v>878</v>
+      </c>
+      <c r="F264" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="G263" s="34" t="s">
+      <c r="G264" s="34" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="42">
-      <c r="A264" s="4" t="s">
+    <row r="265" spans="1:7" ht="42">
+      <c r="A265" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B265" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C264" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D264" s="4" t="s">
+      <c r="C265" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D265" s="4" t="s">
         <v>1123</v>
       </c>
-      <c r="E264" s="4" t="s">
+      <c r="E265" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="F264" s="4" t="s">
+      <c r="F265" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="G264" s="4" t="s">
+      <c r="G265" s="4" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="42">
-      <c r="A265" s="21" t="s">
+    <row r="266" spans="1:7" ht="42">
+      <c r="A266" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="B265" s="21" t="s">
+      <c r="B266" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="C265" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="D265" s="21" t="s">
+      <c r="C266" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="D266" s="21" t="s">
         <v>1124</v>
       </c>
-      <c r="E265" s="34" t="s">
+      <c r="E266" s="34" t="s">
         <v>878</v>
       </c>
-      <c r="F265" s="34" t="s">
+      <c r="F266" s="34" t="s">
         <v>884</v>
       </c>
-      <c r="G265" s="34" t="s">
+      <c r="G266" s="34" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="42">
-      <c r="A266" s="4" t="s">
+    <row r="267" spans="1:7" ht="42">
+      <c r="A267" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B267" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C266" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D266" s="4" t="s">
+      <c r="C267" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D267" s="4" t="s">
         <v>1125</v>
       </c>
-      <c r="E266" s="4" t="s">
+      <c r="E267" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="F266" s="4" t="s">
+      <c r="F267" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="G266" s="4" t="s">
+      <c r="G267" s="4" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="42">
-      <c r="A267" s="20" t="s">
+    <row r="268" spans="1:7" ht="42">
+      <c r="A268" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="B267" s="20" t="s">
+      <c r="B268" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="C267" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="D267" s="20" t="s">
+      <c r="C268" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D268" s="20" t="s">
         <v>1130</v>
       </c>
-      <c r="E267" s="34" t="s">
+      <c r="E268" s="34" t="s">
         <v>878</v>
       </c>
-      <c r="F267" s="34" t="s">
+      <c r="F268" s="34" t="s">
         <v>888</v>
       </c>
-      <c r="G267" s="34" t="s">
+      <c r="G268" s="34" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="42">
-      <c r="A268" s="15" t="s">
+    <row r="269" spans="1:7" ht="42">
+      <c r="A269" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="B268" s="15" t="s">
+      <c r="B269" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="C268" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="D268" s="17" t="s">
+      <c r="C269" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="D269" s="17" t="s">
         <v>1131</v>
       </c>
-      <c r="E268" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="F268" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="G268" s="4" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="28">
-      <c r="A269" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="B269" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="C269" s="11"/>
-      <c r="D269" s="16"/>
       <c r="E269" s="4" t="s">
         <v>878</v>
       </c>
       <c r="F269" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="G269" s="4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="28">
+      <c r="A270" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C270" s="11"/>
+      <c r="D270" s="16"/>
+      <c r="E270" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="F270" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="G269" s="4" t="s">
+      <c r="G270" s="4" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="42">
-      <c r="A270" s="21" t="s">
+    <row r="271" spans="1:7" ht="42">
+      <c r="A271" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="B270" s="21" t="s">
+      <c r="B271" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="C270" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="D270" s="21" t="s">
+      <c r="C271" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="D271" s="21" t="s">
         <v>1132</v>
       </c>
-      <c r="E270" s="34" t="s">
+      <c r="E271" s="34" t="s">
         <v>878</v>
       </c>
-      <c r="F270" s="34" t="s">
+      <c r="F271" s="34" t="s">
         <v>891</v>
       </c>
-      <c r="G270" s="34" t="s">
+      <c r="G271" s="34" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="11" t="s">
+    <row r="272" spans="1:7">
+      <c r="A272" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="B271" s="11" t="s">
+      <c r="B272" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="C271" s="11"/>
-      <c r="D271" s="4"/>
-      <c r="E271" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="F271" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="G271" s="4" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" ht="42">
-      <c r="A272" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D272" s="4" t="s">
-        <v>1128</v>
-      </c>
+      <c r="C272" s="11"/>
+      <c r="D272" s="4"/>
       <c r="E272" s="4" t="s">
         <v>878</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>894</v>
+        <v>817</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="42">
       <c r="A273" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E273" s="4" t="s">
         <v>878</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="42">
       <c r="A274" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>88</v>
+        <v>401</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="E274" s="4" t="s">
         <v>878</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="42">
       <c r="A275" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>413</v>
+        <v>88</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E275" s="4" t="s">
         <v>878</v>
       </c>
       <c r="F275" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="G275" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="42">
+      <c r="A276" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="F276" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="G275" t="s">
+      <c r="G276" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
-      <c r="A276" s="12" t="s">
+    <row r="277" spans="1:7">
+      <c r="A277" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B276" s="12" t="s">
+      <c r="B277" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C276" s="12"/>
-      <c r="D276" s="12"/>
-      <c r="E276" s="12"/>
-      <c r="F276" s="12"/>
-      <c r="G276" s="12"/>
-    </row>
-    <row r="277" spans="1:7" ht="28">
-      <c r="A277" s="45" t="s">
+      <c r="C277" s="12"/>
+      <c r="D277" s="12"/>
+      <c r="E277" s="12"/>
+      <c r="F277" s="12"/>
+      <c r="G277" s="12"/>
+    </row>
+    <row r="278" spans="1:7" ht="28">
+      <c r="A278" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="B277" s="45" t="s">
+      <c r="B278" s="45" t="s">
         <v>639</v>
       </c>
-      <c r="C277" s="45"/>
-      <c r="D277" s="52"/>
-      <c r="E277" s="34" t="s">
-        <v>904</v>
-      </c>
-      <c r="F277" s="34" t="s">
-        <v>905</v>
-      </c>
-      <c r="G277" s="34" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" ht="28">
-      <c r="A278" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="B278" s="24" t="s">
-        <v>639</v>
-      </c>
-      <c r="C278" s="24"/>
-      <c r="D278" s="51"/>
+      <c r="C278" s="45"/>
+      <c r="D278" s="52"/>
       <c r="E278" s="34" t="s">
         <v>904</v>
       </c>
       <c r="F278" s="34" t="s">
+        <v>905</v>
+      </c>
+      <c r="G278" s="34" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="28">
+      <c r="A279" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="B279" s="24" t="s">
+        <v>639</v>
+      </c>
+      <c r="C279" s="24"/>
+      <c r="D279" s="51"/>
+      <c r="E279" s="34" t="s">
+        <v>904</v>
+      </c>
+      <c r="F279" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="G278" s="34" t="s">
+      <c r="G279" s="34" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="42">
-      <c r="A279" s="4" t="s">
+    <row r="280" spans="1:7" ht="42">
+      <c r="A280" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B280" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C279" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D279" s="4" t="s">
+      <c r="C280" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D280" s="4" t="s">
         <v>1133</v>
       </c>
-      <c r="E279" s="4" t="s">
+      <c r="E280" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="F279" s="4" t="s">
+      <c r="F280" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G279" s="4" t="s">
+      <c r="G280" s="4" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="15">
-      <c r="A280" s="24" t="s">
+    <row r="281" spans="1:7" ht="15">
+      <c r="A281" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="B280" s="24" t="s">
+      <c r="B281" s="24" t="s">
         <v>921</v>
-      </c>
-      <c r="C280" s="24"/>
-      <c r="D280" s="21"/>
-      <c r="E280" s="34" t="s">
-        <v>904</v>
-      </c>
-      <c r="F280" s="34" t="s">
-        <v>908</v>
-      </c>
-      <c r="G280" s="34" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" ht="28">
-      <c r="A281" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="B281" s="24" t="s">
-        <v>922</v>
       </c>
       <c r="C281" s="24"/>
       <c r="D281" s="21"/>
@@ -11437,56 +11454,56 @@
         <v>904</v>
       </c>
       <c r="F281" s="34" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G281" s="34" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
-      <c r="A282" s="11" t="s">
+    <row r="282" spans="1:7" ht="28">
+      <c r="A282" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="B282" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="C282" s="24"/>
+      <c r="D282" s="21"/>
+      <c r="E282" s="34" t="s">
+        <v>904</v>
+      </c>
+      <c r="F282" s="34" t="s">
+        <v>909</v>
+      </c>
+      <c r="G282" s="34" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="B282" s="11" t="s">
+      <c r="B283" s="11" t="s">
         <v>923</v>
       </c>
-      <c r="C282" s="11"/>
-      <c r="D282" s="4"/>
-      <c r="E282" s="4" t="s">
+      <c r="C283" s="11"/>
+      <c r="D283" s="4"/>
+      <c r="E283" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="F282" s="4" t="s">
+      <c r="F283" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="G282" s="4" t="s">
+      <c r="G283" s="4" t="s">
         <v>911</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" ht="30">
-      <c r="A283" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="B283" s="24" t="s">
-        <v>924</v>
-      </c>
-      <c r="C283" s="24"/>
-      <c r="D283" s="21"/>
-      <c r="E283" s="34" t="s">
-        <v>904</v>
-      </c>
-      <c r="F283" s="34" t="s">
-        <v>912</v>
-      </c>
-      <c r="G283" s="34" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="30">
       <c r="A284" s="24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B284" s="24" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C284" s="24"/>
       <c r="D284" s="21"/>
@@ -11494,18 +11511,18 @@
         <v>904</v>
       </c>
       <c r="F284" s="34" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G284" s="34" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="30">
       <c r="A285" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B285" s="24" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="C285" s="24"/>
       <c r="D285" s="21"/>
@@ -11513,181 +11530,177 @@
         <v>904</v>
       </c>
       <c r="F285" s="34" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G285" s="34" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" ht="28">
-      <c r="A286" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="B286" s="22" t="s">
-        <v>926</v>
-      </c>
-      <c r="C286" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="D286" s="22" t="s">
-        <v>1134</v>
-      </c>
+        <v>915</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="30">
+      <c r="A286" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="B286" s="24" t="s">
+        <v>925</v>
+      </c>
+      <c r="C286" s="24"/>
+      <c r="D286" s="21"/>
       <c r="E286" s="34" t="s">
         <v>904</v>
       </c>
       <c r="F286" s="34" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G286" s="34" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" ht="15">
-      <c r="A287" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="B287" s="24" t="s">
-        <v>927</v>
-      </c>
-      <c r="C287" s="24"/>
-      <c r="D287" s="21"/>
+        <v>917</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="28">
+      <c r="A287" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="B287" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="C287" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D287" s="22" t="s">
+        <v>1134</v>
+      </c>
       <c r="E287" s="34" t="s">
         <v>904</v>
       </c>
       <c r="F287" s="34" t="s">
+        <v>918</v>
+      </c>
+      <c r="G287" s="34" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="15">
+      <c r="A288" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="B288" s="24" t="s">
+        <v>927</v>
+      </c>
+      <c r="C288" s="24"/>
+      <c r="D288" s="21"/>
+      <c r="E288" s="34" t="s">
+        <v>904</v>
+      </c>
+      <c r="F288" s="34" t="s">
         <v>920</v>
       </c>
-      <c r="G287" s="34" t="s">
+      <c r="G288" s="34" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
-      <c r="A288" s="12" t="s">
+    <row r="289" spans="1:7">
+      <c r="A289" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="B288" s="12" t="s">
+      <c r="B289" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C288" s="12"/>
-      <c r="D288" s="12"/>
-      <c r="E288" s="12"/>
-      <c r="F288" s="12"/>
-      <c r="G288" s="12"/>
-    </row>
-    <row r="289" spans="1:7" ht="28">
-      <c r="A289" s="4" t="s">
+      <c r="C289" s="12"/>
+      <c r="D289" s="12"/>
+      <c r="E289" s="12"/>
+      <c r="F289" s="12"/>
+      <c r="G289" s="12"/>
+    </row>
+    <row r="290" spans="1:7" ht="28">
+      <c r="A290" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B289" s="4" t="s">
+      <c r="B290" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C289" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D289" s="4" t="s">
+      <c r="C290" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D290" s="4" t="s">
         <v>1135</v>
       </c>
-      <c r="E289" s="4" t="s">
+      <c r="E290" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="F289" s="4" t="s">
+      <c r="F290" s="4" t="s">
         <v>930</v>
       </c>
-      <c r="G289" s="4" t="s">
+      <c r="G290" s="4" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="30">
-      <c r="A290" s="24" t="s">
+    <row r="291" spans="1:7" ht="30">
+      <c r="A291" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="B290" s="24" t="s">
+      <c r="B291" s="24" t="s">
         <v>639</v>
       </c>
-      <c r="C290" s="24"/>
-      <c r="D290" s="51"/>
-      <c r="E290" s="34" t="s">
+      <c r="C291" s="24"/>
+      <c r="D291" s="51"/>
+      <c r="E291" s="34" t="s">
         <v>929</v>
       </c>
-      <c r="F290" s="34" t="s">
+      <c r="F291" s="34" t="s">
         <v>870</v>
       </c>
-      <c r="G290" s="34" t="s">
+      <c r="G291" s="34" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="28">
-      <c r="A291" s="4" t="s">
+    <row r="292" spans="1:7" ht="28">
+      <c r="A292" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="B292" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C291" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D291" s="4" t="s">
+      <c r="C292" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D292" s="4" t="s">
         <v>1136</v>
-      </c>
-      <c r="E291" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="F291" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="G291" s="4" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" ht="42">
-      <c r="A292" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D292" s="4" t="s">
-        <v>1137</v>
       </c>
       <c r="E292" s="4" t="s">
         <v>929</v>
       </c>
       <c r="F292" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="G292" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="42">
+      <c r="A293" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="F293" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="G292" s="4" t="s">
+      <c r="G293" s="4" t="s">
         <v>935</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" ht="42">
-      <c r="A293" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="B293" s="22" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C293" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="D293" s="22" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E293" s="34" t="s">
-        <v>929</v>
-      </c>
-      <c r="F293" s="34" t="s">
-        <v>936</v>
-      </c>
-      <c r="G293" s="34" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="42">
       <c r="A294" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B294" s="22" t="s">
         <v>1147</v>
@@ -11702,15 +11715,15 @@
         <v>929</v>
       </c>
       <c r="F294" s="34" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G294" s="34" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="42">
       <c r="A295" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B295" s="22" t="s">
         <v>1147</v>
@@ -11725,289 +11738,315 @@
         <v>929</v>
       </c>
       <c r="F295" s="34" t="s">
+        <v>938</v>
+      </c>
+      <c r="G295" s="34" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="42">
+      <c r="A296" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="B296" s="22" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C296" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D296" s="22" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E296" s="34" t="s">
+        <v>929</v>
+      </c>
+      <c r="F296" s="34" t="s">
         <v>940</v>
       </c>
-      <c r="G295" s="34" t="s">
+      <c r="G296" s="34" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="28">
-      <c r="A296" s="4" t="s">
+    <row r="297" spans="1:7" ht="28">
+      <c r="A297" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B296" s="4" t="s">
+      <c r="B297" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C296" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D296" s="4" t="s">
+      <c r="C297" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D297" s="4" t="s">
         <v>1138</v>
       </c>
-      <c r="E296" s="4" t="s">
+      <c r="E297" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="F296" s="4" t="s">
+      <c r="F297" s="4" t="s">
         <v>942</v>
       </c>
-      <c r="G296" s="4" t="s">
+      <c r="G297" s="4" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="42">
-      <c r="A297" s="22" t="s">
+    <row r="298" spans="1:7" ht="42">
+      <c r="A298" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="B297" s="22" t="s">
+      <c r="B298" s="22" t="s">
         <v>1148</v>
       </c>
-      <c r="C297" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="D297" s="22" t="s">
+      <c r="C298" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D298" s="22" t="s">
         <v>1140</v>
-      </c>
-      <c r="E297" s="34" t="s">
-        <v>929</v>
-      </c>
-      <c r="F297" s="34" t="s">
-        <v>944</v>
-      </c>
-      <c r="G297" s="34" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" ht="30">
-      <c r="A298" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="B298" s="22" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C298" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="D298" s="22" t="s">
-        <v>1139</v>
       </c>
       <c r="E298" s="34" t="s">
         <v>929</v>
       </c>
       <c r="F298" s="34" t="s">
+        <v>944</v>
+      </c>
+      <c r="G298" s="34" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="30">
+      <c r="A299" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="B299" s="22" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C299" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D299" s="22" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E299" s="34" t="s">
+        <v>929</v>
+      </c>
+      <c r="F299" s="34" t="s">
         <v>946</v>
       </c>
-      <c r="G298" s="34" t="s">
+      <c r="G299" s="34" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="42">
-      <c r="A299" s="4" t="s">
+    <row r="300" spans="1:7" ht="42">
+      <c r="A300" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="B300" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C299" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D299" s="4" t="s">
+      <c r="C300" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D300" s="4" t="s">
         <v>1141</v>
       </c>
-      <c r="E299" s="4" t="s">
+      <c r="E300" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="F299" s="4" t="s">
+      <c r="F300" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="G299" s="4" t="s">
+      <c r="G300" s="4" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
-      <c r="A300" s="12" t="s">
+    <row r="301" spans="1:7">
+      <c r="A301" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="B300" s="12" t="s">
+      <c r="B301" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C300" s="12"/>
-      <c r="D300" s="12"/>
-      <c r="E300" s="12"/>
-      <c r="F300" s="12"/>
-      <c r="G300" s="12"/>
-    </row>
-    <row r="301" spans="1:7" ht="28">
-      <c r="A301" s="11" t="s">
+      <c r="C301" s="12"/>
+      <c r="D301" s="12"/>
+      <c r="E301" s="12"/>
+      <c r="F301" s="12"/>
+      <c r="G301" s="12"/>
+    </row>
+    <row r="302" spans="1:7" ht="28">
+      <c r="A302" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="B301" s="11" t="s">
+      <c r="B302" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="C301" s="11"/>
-      <c r="D301" s="4"/>
-      <c r="E301" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="F301" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="G301" s="4" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" ht="42">
-      <c r="A302" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="B302" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C302" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="D302" s="4" t="s">
-        <v>1142</v>
-      </c>
+      <c r="C302" s="11"/>
+      <c r="D302" s="4"/>
       <c r="E302" s="4" t="s">
         <v>950</v>
       </c>
       <c r="F302" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G302" s="4" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" ht="28">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="42">
       <c r="A303" s="4" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>1146</v>
+        <v>126</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>464</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E303" s="4" t="s">
         <v>950</v>
       </c>
       <c r="F303" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="G303" s="4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="28">
+      <c r="A304" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="F304" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="G303" s="4" t="s">
+      <c r="G304" s="4" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
-      <c r="A304" s="12" t="s">
+    <row r="305" spans="1:7">
+      <c r="A305" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="B304" s="12" t="s">
+      <c r="B305" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C304" s="12"/>
-      <c r="D304" s="12"/>
-      <c r="E304" s="12"/>
-      <c r="F304" s="12"/>
-      <c r="G304" s="12"/>
-    </row>
-    <row r="305" spans="1:7" ht="15">
-      <c r="A305" s="30" t="s">
+      <c r="C305" s="12"/>
+      <c r="D305" s="12"/>
+      <c r="E305" s="12"/>
+      <c r="F305" s="12"/>
+      <c r="G305" s="12"/>
+    </row>
+    <row r="306" spans="1:7" ht="15">
+      <c r="A306" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="B305" s="30"/>
-      <c r="C305" s="30"/>
-      <c r="D305" s="20"/>
-      <c r="E305" s="34" t="s">
-        <v>950</v>
-      </c>
-      <c r="F305" s="34" t="s">
-        <v>957</v>
-      </c>
-      <c r="G305" s="34" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" ht="42">
-      <c r="A306" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="B306" s="22"/>
-      <c r="C306" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="D306" s="22" t="s">
-        <v>1145</v>
-      </c>
+      <c r="B306" s="30"/>
+      <c r="C306" s="30"/>
+      <c r="D306" s="20"/>
       <c r="E306" s="34" t="s">
         <v>950</v>
       </c>
       <c r="F306" s="34" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="G306" s="34" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="30">
-      <c r="A307" s="30" t="s">
-        <v>430</v>
-      </c>
-      <c r="B307" s="30"/>
-      <c r="C307" s="30"/>
-      <c r="D307" s="20"/>
+    <row r="307" spans="1:7" ht="42">
+      <c r="A307" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="B307" s="22"/>
+      <c r="C307" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D307" s="22" t="s">
+        <v>1145</v>
+      </c>
       <c r="E307" s="34" t="s">
         <v>950</v>
       </c>
       <c r="F307" s="34" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G307" s="34" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="42">
-      <c r="A308" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="B308" s="22"/>
-      <c r="C308" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="D308" s="22" t="s">
-        <v>1144</v>
-      </c>
+    <row r="308" spans="1:7" ht="30">
+      <c r="A308" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="B308" s="30"/>
+      <c r="C308" s="30"/>
+      <c r="D308" s="20"/>
       <c r="E308" s="34" t="s">
         <v>950</v>
       </c>
       <c r="F308" s="34" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G308" s="34" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="15">
-      <c r="A309" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="B309" s="38"/>
-      <c r="C309" s="38"/>
-      <c r="D309" s="22"/>
+    <row r="309" spans="1:7" ht="42">
+      <c r="A309" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="B309" s="22"/>
+      <c r="C309" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D309" s="22" t="s">
+        <v>1144</v>
+      </c>
       <c r="E309" s="34" t="s">
         <v>950</v>
       </c>
       <c r="F309" s="34" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G309" s="34" t="s">
         <v>958</v>
       </c>
     </row>
+    <row r="310" spans="1:7" ht="15">
+      <c r="A310" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="B310" s="38"/>
+      <c r="C310" s="38"/>
+      <c r="D310" s="22"/>
+      <c r="E310" s="34" t="s">
+        <v>950</v>
+      </c>
+      <c r="F310" s="34" t="s">
+        <v>962</v>
+      </c>
+      <c r="G310" s="34" t="s">
+        <v>958</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E14:G14"/>
+  </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Court_Case_Query_Results/artifacts/service_model/information_model/IEPD/documentation/Court_Case_Query_Results-Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Court_Case_Query_Results/artifacts/service_model/information_model/IEPD/documentation/Court_Case_Query_Results-Mapping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1186">
   <si>
     <t>Race</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Style</t>
-  </si>
-  <si>
     <t>Program</t>
   </si>
   <si>
@@ -1032,9 +1029,6 @@
     <t>VIN</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>finding</t>
   </si>
   <si>
@@ -2559,12 +2553,6 @@
     <t>OFFENSE/VEHICLE_PAINT_COLOR_CODE</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>TYPE/DESCRIPTION</t>
-  </si>
-  <si>
     <t>OFFENSE/VEHICLE_MODEL_YEAR</t>
   </si>
   <si>
@@ -2572,9 +2560,6 @@
   </si>
   <si>
     <t>OFFENSE/VEHICLE_COMMERCIAL_FLAG</t>
-  </si>
-  <si>
-    <t>OFFENSE/VEHICLE_STYLE_CODE_ID</t>
   </si>
   <si>
     <t>Disposition</t>
@@ -3409,12 +3394,6 @@
     <t>ccq-res-doc:CourtCaseQueryResults/nc:Vehicle/nc:VehicleCMVIndicator</t>
   </si>
   <si>
-    <t>style code of vehicle</t>
-  </si>
-  <si>
-    <t>use the mm_off_vehicle_types to find the correct type in type table</t>
-  </si>
-  <si>
     <t>manufacture year of vehicle</t>
   </si>
   <si>
@@ -3578,6 +3557,30 @@
   </si>
   <si>
     <t>ccq-res-doc:CourtCaseQueryResults/nc:Person/intel:PersonAugmentation/intel:PersonSystemIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>ccq-res-doc:CourtCaseQueryResults/nc:Case/j:CaseAugmentation/j:CaseCharge/j:ChargePlea/j:PleaDescriptionText</t>
+  </si>
+  <si>
+    <t>ccq-res-doc:CourtCaseQueryResults/nc:Case/j:CaseAugmentation/j:CaseCharge/j:ChargePlea/j:PleaRecommendationjText</t>
+  </si>
+  <si>
+    <t>ccq-res-doc:CourtCaseQueryResults/nc:Vehicle/j:ConveyanceAugmentation/j:ModelYearRange/nc:StartDate/nc:YearDate</t>
+  </si>
+  <si>
+    <t>ccq-res-doc:CourtCaseQueryResults/nc:Vehicle/nc:VehicleIdentification/intel:IdentificationAugmentation/intel:IdentificationIssuingLocalityText</t>
+  </si>
+  <si>
+    <t>ccq-res-doc:CourtCaseQueryResults/nc:Vehicle/nc:VehicleIdentification/intel:IdentificationAugmentation/intel:IdentificationIssuingStateName</t>
+  </si>
+  <si>
+    <t>ccq-res-doc:CourtCaseQueryResults/nc:Vehicle/nc:ItemColor/j:ConveyanceColorPrimaryCode</t>
+  </si>
+  <si>
+    <t>ccq-res-doc:CourtCaseQueryResults/j:Citation/ccq-res-ext:CitationAugmentation/ccq-res-ext:HazardousMaterialsIndicator</t>
+  </si>
+  <si>
+    <t>ccq-res-doc:CourtCaseQueryResults/j:Citation/ccq-res-ext:CitationAugmentation/ccq-res-ext:NuclearMaterialsIndicator</t>
   </si>
 </sst>
 </file>
@@ -3755,7 +3758,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="769">
+  <cellStyleXfs count="781">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4525,8 +4528,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4651,9 +4666,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4686,8 +4698,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="769">
+  <cellStyles count="781">
     <cellStyle name="Calculation" xfId="154" builtinId="22"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -5072,6 +5097,12 @@
     <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -5455,6 +5486,12 @@
     <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -5785,11 +5822,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J298"/>
+  <dimension ref="A1:J296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D175" sqref="D175:D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5815,33 +5852,33 @@
     </row>
     <row r="2" spans="1:7" ht="28">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5851,56 +5888,56 @@
     </row>
     <row r="4" spans="1:7" ht="28">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28">
       <c r="A5" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5909,57 +5946,57 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="28">
-      <c r="A7" s="46" t="s">
-        <v>420</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>451</v>
-      </c>
-      <c r="C7" s="46" t="s">
+      <c r="A7" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>937</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>450</v>
       </c>
-      <c r="D7" s="46" t="s">
-        <v>942</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="46" t="s">
-        <v>524</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>450</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>943</v>
+      <c r="C8" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>938</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -5969,224 +6006,224 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="G10" s="41" t="s">
         <v>464</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>31</v>
-      </c>
       <c r="C12" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28">
       <c r="A14" s="3" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+        <v>1155</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7" ht="42">
       <c r="A15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30">
+      <c r="A16" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="C16" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>949</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>462</v>
+      </c>
+      <c r="F16" s="53" t="s">
         <v>473</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G16" s="53" t="s">
         <v>474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>450</v>
-      </c>
-      <c r="D16" s="54" t="s">
-        <v>954</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>464</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>475</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="56">
       <c r="A18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>41</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="42">
       <c r="A19" s="25" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="26" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
@@ -6194,308 +6231,308 @@
     </row>
     <row r="20" spans="1:10" ht="42">
       <c r="A20" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="28">
       <c r="A21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="C21" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="42">
       <c r="A22" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="28">
       <c r="A23" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="28">
       <c r="A24" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="42">
       <c r="A25" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="28">
       <c r="A26" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="28">
       <c r="A27" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="28">
       <c r="A28" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="27" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>464</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>511</v>
-      </c>
-      <c r="G28" s="47" t="s">
-        <v>512</v>
+        <v>1166</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>509</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="28">
       <c r="A29" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="28">
       <c r="A30" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28">
       <c r="A31" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="28">
       <c r="A32" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -6504,78 +6541,78 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="42">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="6" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>33</v>
-      </c>
       <c r="C35" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="28">
       <c r="A36" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -6585,64 +6622,64 @@
     </row>
     <row r="38" spans="1:7" ht="42">
       <c r="A38" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="41" t="s">
-        <v>37</v>
-      </c>
       <c r="C38" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="42">
       <c r="A39" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="41" t="s">
-        <v>39</v>
-      </c>
       <c r="C39" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="28" hidden="1">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -6652,33 +6689,33 @@
     </row>
     <row r="42" spans="1:7" ht="42">
       <c r="A42" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -6688,33 +6725,33 @@
     </row>
     <row r="44" spans="1:7" ht="28">
       <c r="A44" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="G44" s="29" t="s">
         <v>531</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="G44" s="29" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -6724,54 +6761,54 @@
     </row>
     <row r="46" spans="1:7" ht="28">
       <c r="A46" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="C46" s="27"/>
       <c r="D46" s="27" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="28">
       <c r="A47" s="18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -6781,215 +6818,215 @@
     </row>
     <row r="49" spans="1:7" ht="42">
       <c r="A49" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="42">
       <c r="A50" s="41" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="28">
       <c r="A51" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="42">
       <c r="A52" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="42">
       <c r="A53" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="28">
       <c r="A54" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="28">
       <c r="A55" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="E55" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="G55" s="20" t="s">
         <v>548</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="28">
       <c r="A56" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="18" t="s">
-        <v>164</v>
-      </c>
       <c r="C56" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C57" s="32"/>
       <c r="D57" s="32" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -6999,258 +7036,258 @@
     </row>
     <row r="59" spans="1:7" ht="42">
       <c r="A59" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>555</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="42">
       <c r="A60" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="42">
       <c r="A61" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="42">
       <c r="A62" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="28">
       <c r="A63" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="42">
       <c r="A64" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C64" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="D64" s="46" t="s">
-        <v>991</v>
+        <v>264</v>
+      </c>
+      <c r="C64" s="47" t="s">
+        <v>448</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>986</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="42">
       <c r="A65" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="C65" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="D65" s="46" t="s">
-        <v>994</v>
+        <v>271</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>448</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>989</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="42">
       <c r="A66" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="C66" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="D66" s="46" t="s">
-        <v>995</v>
+        <v>270</v>
+      </c>
+      <c r="C66" s="47" t="s">
+        <v>448</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>990</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G66" s="41" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="42">
       <c r="A67" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C67" s="49"/>
-      <c r="D67" s="44" t="s">
-        <v>1169</v>
+        <v>277</v>
+      </c>
+      <c r="C67" s="48"/>
+      <c r="D67" s="43" t="s">
+        <v>1162</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="56">
       <c r="A68" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C68" s="50" t="s">
-        <v>450</v>
+      <c r="C68" s="49" t="s">
+        <v>448</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F68" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="28">
+      <c r="A69" s="45" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>987</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>572</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="28">
-      <c r="A69" s="46" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B69" s="46" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C69" s="46" t="s">
-        <v>450</v>
-      </c>
-      <c r="D69" s="46" t="s">
-        <v>992</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -7260,148 +7297,148 @@
     </row>
     <row r="71" spans="1:7" ht="42">
       <c r="A71" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="41" t="s">
-        <v>84</v>
-      </c>
       <c r="C71" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D71" s="41" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="E71" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="G71" s="41" t="s">
         <v>575</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="G71" s="41" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="42">
       <c r="A72" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="41" t="s">
-        <v>86</v>
-      </c>
       <c r="C72" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="42">
       <c r="A73" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G73" s="41" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="42">
       <c r="A74" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="C74" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G74" s="41" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="42">
       <c r="A75" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B75" s="41" t="s">
-        <v>91</v>
-      </c>
       <c r="C75" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G75" s="41" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="42">
       <c r="A76" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B76" s="41" t="s">
-        <v>97</v>
-      </c>
       <c r="C76" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G76" s="41" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -7411,125 +7448,125 @@
     </row>
     <row r="78" spans="1:7" ht="42">
       <c r="A78" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="42">
       <c r="A79" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="C79" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="42">
       <c r="A80" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="G80" s="48" t="s">
-        <v>593</v>
+        <v>590</v>
+      </c>
+      <c r="G80" s="47" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="42">
       <c r="A81" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="G81" s="48" t="s">
-        <v>593</v>
+        <v>592</v>
+      </c>
+      <c r="G81" s="47" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="42">
       <c r="A82" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -7539,33 +7576,33 @@
     </row>
     <row r="84" spans="1:7" ht="42">
       <c r="A84" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B84" s="41" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -7575,79 +7612,79 @@
     </row>
     <row r="86" spans="1:7" ht="42">
       <c r="A86" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D86" s="41" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G86" s="41" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="42">
       <c r="A87" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B87" s="41" t="s">
-        <v>71</v>
-      </c>
       <c r="C87" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D87" s="41" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="E87" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>603</v>
-      </c>
       <c r="G87" s="41" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="42">
       <c r="A88" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D88" s="41" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -7657,56 +7694,56 @@
     </row>
     <row r="90" spans="1:7" ht="28">
       <c r="A90" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="C90" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D90" s="41" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="28">
       <c r="A91" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D91" s="41" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -7716,117 +7753,117 @@
     </row>
     <row r="93" spans="1:7" ht="42">
       <c r="A93" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G93" s="29" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C94" s="33"/>
       <c r="D94" s="22" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="28">
       <c r="A95" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B95" s="33" t="s">
         <v>181</v>
-      </c>
-      <c r="B95" s="33" t="s">
-        <v>182</v>
       </c>
       <c r="C95" s="33"/>
       <c r="D95" s="22" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="28">
       <c r="A96" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" s="33" t="s">
         <v>177</v>
-      </c>
-      <c r="B96" s="33" t="s">
-        <v>178</v>
       </c>
       <c r="C96" s="33"/>
       <c r="D96" s="22" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="G96" s="47" t="s">
-        <v>593</v>
+        <v>618</v>
+      </c>
+      <c r="G96" s="46" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="28">
       <c r="A97" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" s="33" t="s">
         <v>179</v>
-      </c>
-      <c r="B97" s="33" t="s">
-        <v>180</v>
       </c>
       <c r="C97" s="33"/>
       <c r="D97" s="22" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>621</v>
-      </c>
-      <c r="G97" s="47" t="s">
-        <v>593</v>
+        <v>619</v>
+      </c>
+      <c r="G97" s="46" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="28">
       <c r="A98" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -7836,253 +7873,253 @@
     </row>
     <row r="99" spans="1:7" ht="42">
       <c r="A99" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="D99" s="51" t="s">
-        <v>1147</v>
+        <v>448</v>
+      </c>
+      <c r="D99" s="50" t="s">
+        <v>1140</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="42">
-      <c r="A100" s="52" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B100" s="52" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C100" s="52"/>
-      <c r="D100" s="52" t="s">
-        <v>1184</v>
+      <c r="A100" s="51" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B100" s="51" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C100" s="51"/>
+      <c r="D100" s="51" t="s">
+        <v>1177</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="42">
       <c r="A101" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B101" s="17" t="s">
-        <v>45</v>
-      </c>
       <c r="C101" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="28">
       <c r="A102" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B102" s="41" t="s">
-        <v>47</v>
-      </c>
       <c r="C102" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="28">
       <c r="A103" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B103" s="41" t="s">
-        <v>49</v>
-      </c>
       <c r="C103" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B104" s="41" t="s">
-        <v>51</v>
-      </c>
       <c r="C104" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B105" s="41" t="s">
-        <v>53</v>
-      </c>
       <c r="C105" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B106" s="41" t="s">
-        <v>55</v>
-      </c>
       <c r="C106" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D106" s="41" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D107" s="41" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="56">
       <c r="A108" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D108" s="41" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B109" s="41" t="s">
-        <v>57</v>
-      </c>
       <c r="C109" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D109" s="41" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -8090,22 +8127,22 @@
         <v>0</v>
       </c>
       <c r="B110" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D110" s="41" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -8113,135 +8150,135 @@
         <v>1</v>
       </c>
       <c r="B111" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D111" s="41" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G111" s="41" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="28">
-      <c r="A112" s="48" t="s">
+      <c r="A112" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="48" t="s">
-        <v>60</v>
+      <c r="B112" s="47" t="s">
+        <v>59</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D112" s="41" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="30" customHeight="1">
-      <c r="A113" s="48" t="s">
+      <c r="A113" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B113" s="48" t="s">
-        <v>61</v>
+      <c r="B113" s="47" t="s">
+        <v>60</v>
       </c>
       <c r="C113" s="26"/>
       <c r="D113" s="41" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B114" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C114" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D114" s="41" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B115" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D115" s="41" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="56">
       <c r="A116" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="45" t="s">
-        <v>1175</v>
+      <c r="B116" s="44" t="s">
+        <v>1168</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="28">
@@ -8249,22 +8286,22 @@
         <v>5</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C117" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D117" s="41" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="42">
@@ -8272,281 +8309,281 @@
         <v>6</v>
       </c>
       <c r="B118" s="32" t="s">
+        <v>645</v>
+      </c>
+      <c r="C118" s="28" t="s">
         <v>647</v>
       </c>
-      <c r="C118" s="28" t="s">
-        <v>649</v>
-      </c>
       <c r="D118" s="28" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="42">
       <c r="A119" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B119" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="42">
       <c r="A120" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B120" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="42">
       <c r="A121" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="42">
       <c r="A122" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="42">
       <c r="A123" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="42">
       <c r="A124" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="42">
       <c r="A125" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="D125" s="52" t="s">
-        <v>1179</v>
+        <v>445</v>
+      </c>
+      <c r="D125" s="51" t="s">
+        <v>1172</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="28">
       <c r="A126" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D127" s="26" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="42">
       <c r="A128" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="E128" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G128" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="28">
       <c r="A129" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C129" s="23"/>
       <c r="D129" s="23" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F129" s="23" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G129" s="23" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
@@ -8556,157 +8593,157 @@
     </row>
     <row r="131" spans="1:7" ht="42">
       <c r="A131" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="E131" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="G131" s="3" t="s">
         <v>673</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="42">
       <c r="A132" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="42">
       <c r="A133" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="42">
       <c r="A134" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="42">
       <c r="A135" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="42">
       <c r="A136" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="42">
       <c r="A137" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B137" s="7"/>
       <c r="C137" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="28">
       <c r="A138" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -8718,33 +8755,33 @@
       <c r="A139" s="15"/>
       <c r="B139" s="15"/>
       <c r="C139" s="31" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="28">
@@ -8752,43 +8789,43 @@
         <v>9</v>
       </c>
       <c r="B141" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -8796,13 +8833,13 @@
         <v>10</v>
       </c>
       <c r="B143" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>9</v>
@@ -8811,61 +8848,61 @@
         <v>10</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B144" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B145" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="28">
       <c r="A146" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
@@ -8875,104 +8912,104 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="15"/>
-      <c r="B147" s="53"/>
+      <c r="B147" s="52"/>
       <c r="C147" s="31" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D147" s="39" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="42">
       <c r="A148" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="E148" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="G148" s="5" t="s">
         <v>692</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="42">
       <c r="A149" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="42">
       <c r="A150" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="D150" s="46" t="s">
-        <v>1045</v>
+        <v>448</v>
+      </c>
+      <c r="D150" s="45" t="s">
+        <v>1040</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="28">
       <c r="A151" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B151" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B151" s="17" t="s">
-        <v>219</v>
-      </c>
       <c r="C151" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="D151" s="46" t="s">
-        <v>1046</v>
+        <v>448</v>
+      </c>
+      <c r="D151" s="45" t="s">
+        <v>1041</v>
       </c>
       <c r="E151" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F151" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="F151" s="3" t="s">
-        <v>699</v>
-      </c>
       <c r="G151" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -8980,7 +9017,7 @@
         <v>11</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -8990,393 +9027,393 @@
     </row>
     <row r="153" spans="1:7" ht="28">
       <c r="A153" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="C153" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D153" s="41" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="28">
       <c r="A154" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="28">
       <c r="A155" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E155" s="48" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E155" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D156" s="41" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="28">
       <c r="A157" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="28">
       <c r="A158" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="28">
       <c r="A159" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="28">
       <c r="A160" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="84">
       <c r="A161" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="42">
       <c r="A162" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="42">
       <c r="A163" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="42">
       <c r="A164" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="42">
       <c r="A165" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="42">
       <c r="A166" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="42">
       <c r="A167" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="42">
       <c r="A168" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="28">
       <c r="A169" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="28">
@@ -9384,13 +9421,13 @@
         <v>13</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>11</v>
@@ -9398,1447 +9435,1445 @@
       <c r="F170" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G170" s="48" t="s">
-        <v>593</v>
+      <c r="G170" s="47" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="28">
       <c r="A171" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="28">
       <c r="A172" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="28">
       <c r="A173" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="28">
       <c r="A174" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="28">
-      <c r="A175" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B175" s="32" t="s">
-        <v>762</v>
-      </c>
-      <c r="C175" s="49"/>
-      <c r="D175" s="19" t="s">
-        <v>1180</v>
+      <c r="A175" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C175" s="32" t="s">
+        <v>758</v>
+      </c>
+      <c r="D175" s="28" t="s">
+        <v>1184</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>473</v>
+        <v>753</v>
       </c>
       <c r="G175" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="28">
+      <c r="A176" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C176" s="32" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11"/>
-      <c r="F176" s="11"/>
-      <c r="G176" s="11"/>
+      <c r="D176" s="28" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="177" spans="1:7" ht="28">
-      <c r="A177" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>1069</v>
+      <c r="A177" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B177" s="32" t="s">
+        <v>760</v>
+      </c>
+      <c r="C177" s="48"/>
+      <c r="D177" s="28" t="s">
+        <v>1173</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>734</v>
+        <v>471</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="56">
-      <c r="A178" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C178" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="D178" s="17" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="56">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+    </row>
+    <row r="179" spans="1:7" ht="28">
       <c r="A179" s="3" t="s">
-        <v>225</v>
+        <v>453</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C179" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>1072</v>
+        <v>245</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>1064</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="28">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="56">
       <c r="A180" s="3" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="56">
+      <c r="A181" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="28">
+      <c r="A182" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G180" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="11" t="s">
+      <c r="B182" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B181" s="11" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
-      <c r="E181" s="11"/>
-      <c r="F181" s="11"/>
-      <c r="G181" s="11"/>
-    </row>
-    <row r="182" spans="1:7" ht="28">
-      <c r="A182" s="41" t="s">
+      <c r="B183" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+    </row>
+    <row r="184" spans="1:7" ht="28">
+      <c r="A184" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B184" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B182" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C182" s="41" t="s">
-        <v>450</v>
-      </c>
-      <c r="D182" s="41" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="G182" s="41" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B183" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="G183" s="41" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B184" s="41" t="s">
-        <v>77</v>
-      </c>
       <c r="C184" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D184" s="41" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="G184" s="41" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="42">
-      <c r="A185" s="41" t="s">
-        <v>78</v>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="B185" s="41" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>1077</v>
+        <v>448</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>1069</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="G185" s="41" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="70">
-      <c r="A186" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C186" s="26" t="s">
-        <v>978</v>
-      </c>
-      <c r="D186" s="34" t="s">
-        <v>1170</v>
+        <v>764</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B186" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C186" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="D186" s="41" t="s">
+        <v>1070</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>575</v>
+        <v>7</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="56">
+        <v>765</v>
+      </c>
+      <c r="G186" s="41" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="42">
       <c r="A187" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="B187" s="41" t="s">
+        <v>78</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>1076</v>
+        <v>448</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>1072</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G187" s="41" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
-      <c r="E188" s="11"/>
-      <c r="F188" s="11"/>
-      <c r="G188" s="11"/>
-    </row>
-    <row r="189" spans="1:7" ht="42">
-      <c r="A189" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B189" s="3"/>
-      <c r="C189" s="41" t="s">
-        <v>450</v>
-      </c>
-      <c r="D189" s="17" t="s">
-        <v>1077</v>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="70">
+      <c r="A188" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>973</v>
+      </c>
+      <c r="D188" s="34" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="56">
+      <c r="A189" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>1071</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>575</v>
+        <v>7</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="42">
-      <c r="A190" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B190" s="3"/>
-      <c r="C190" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="D190" s="17" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>776</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="G189" s="41" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="11"/>
     </row>
     <row r="191" spans="1:7" ht="42">
       <c r="A191" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="41" t="s">
-        <v>450</v>
-      </c>
-      <c r="D191" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="D191" s="17" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="42">
+      <c r="A192" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B192" s="3"/>
+      <c r="C192" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="D192" s="17" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="42">
+      <c r="A193" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B193" s="3"/>
+      <c r="C193" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="D193" s="41" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+    </row>
+    <row r="195" spans="1:7" ht="56">
+      <c r="A195" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C195" s="26" t="s">
         <v>1079</v>
       </c>
-      <c r="E191" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="F191" s="3" t="s">
+      <c r="D195" s="41" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F195" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="G191" s="3" t="s">
+      <c r="G195" s="41" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
-      <c r="E192" s="11"/>
-      <c r="F192" s="11"/>
-      <c r="G192" s="11"/>
-    </row>
-    <row r="193" spans="1:7" ht="56">
-      <c r="A193" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B193" s="26" t="s">
+    <row r="196" spans="1:7" ht="42">
+      <c r="A196" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C193" s="26" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D193" s="41" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="F193" s="3" t="s">
+      <c r="B196" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C196" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="D196" s="41" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F196" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="G193" s="41" t="s">
+      <c r="G196" s="41" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="42">
-      <c r="A194" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B194" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C194" s="41" t="s">
-        <v>450</v>
-      </c>
-      <c r="D194" s="41" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="F194" s="3" t="s">
+    <row r="197" spans="1:7" ht="42">
+      <c r="A197" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C197" s="26"/>
+      <c r="D197" s="26" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F197" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="G194" s="41" t="s">
+      <c r="G197" s="30" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="10" t="s">
+    <row r="198" spans="1:7" ht="70">
+      <c r="A198" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="B195" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C195" s="26"/>
-      <c r="D195" s="41"/>
-      <c r="E195" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="F195" s="3" t="s">
+      <c r="B198" s="26" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C198" s="26" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D198" s="26" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F198" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="G195" s="30" t="s">
+      <c r="G198" s="41" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="70">
-      <c r="A196" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="B196" s="26" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C196" s="26" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D196" s="41"/>
-      <c r="E196" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="F196" s="3" t="s">
+    <row r="199" spans="1:7">
+      <c r="A199" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+    </row>
+    <row r="200" spans="1:7" ht="56">
+      <c r="A200" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F200" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="G196" s="41" t="s">
+      <c r="G200" s="3" t="s">
         <v>786</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B197" s="11" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
-      <c r="E197" s="11"/>
-      <c r="F197" s="11"/>
-      <c r="G197" s="11"/>
-    </row>
-    <row r="198" spans="1:7" ht="56">
-      <c r="A198" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="42">
-      <c r="A199" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
-      <c r="A200" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D200" s="17" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="G200" s="5" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="42">
       <c r="A201" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D202" s="17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="42">
+      <c r="A203" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B203" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="C203" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C201" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="F201" s="3" t="s">
+      <c r="B204" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="F204" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="G201" s="5" t="s">
+      <c r="G204" s="5" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B202" s="5" t="s">
+    <row r="205" spans="1:7" ht="28">
+      <c r="A205" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="F202" s="3" t="s">
+      <c r="B205" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="F205" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="G202" s="5" t="s">
+      <c r="G205" s="5" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="28">
-      <c r="A203" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B203" s="5" t="s">
+    <row r="206" spans="1:7">
+      <c r="A206" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
+    </row>
+    <row r="207" spans="1:7" ht="28">
+      <c r="A207" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="B207" s="55" t="s">
+        <v>620</v>
+      </c>
+      <c r="C207" s="34"/>
+      <c r="D207" s="38" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B208" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C203" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="F203" s="3" t="s">
+      <c r="C208" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E208" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="G203" s="5" t="s">
+      <c r="F208" s="3" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B204" s="11" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C204" s="11"/>
-      <c r="D204" s="11"/>
-      <c r="E204" s="11"/>
-      <c r="F204" s="11"/>
-      <c r="G204" s="11"/>
-    </row>
-    <row r="205" spans="1:7" ht="28">
-      <c r="A205" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="B205" s="34" t="s">
-        <v>622</v>
-      </c>
-      <c r="C205" s="34"/>
-      <c r="D205" s="38" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="5" t="s">
+      <c r="G208" s="5" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B209" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="C209" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="D209" s="21" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E209" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="F209" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="G209" s="20" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="28">
+      <c r="A210" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B210" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C206" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D206" s="5" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="G206" s="5" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
-      <c r="A207" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="B207" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="C207" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="D207" s="21" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E207" s="22" t="s">
-        <v>806</v>
-      </c>
-      <c r="F207" s="22" t="s">
+      <c r="C210" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F210" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="G207" s="20" t="s">
+      <c r="G210" s="5" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="28">
-      <c r="A208" s="5" t="s">
+    <row r="211" spans="1:7" ht="56">
+      <c r="A211" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B211" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
+      <c r="F212" s="11"/>
+      <c r="G212" s="11"/>
+    </row>
+    <row r="213" spans="1:7" ht="56">
+      <c r="A213" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C208" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="F208" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="G208" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="56">
-      <c r="A209" s="3" t="s">
+      <c r="B213" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="C213" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="D213" s="36" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="28">
+      <c r="A214" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="B209" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="G209" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B210" s="11" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
-      <c r="E210" s="11"/>
-      <c r="F210" s="11"/>
-      <c r="G210" s="11"/>
-    </row>
-    <row r="211" spans="1:7" ht="56">
-      <c r="A211" s="26" t="s">
+      <c r="B214" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="B211" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="C211" s="23" t="s">
-        <v>458</v>
-      </c>
-      <c r="D211" s="36" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="28">
-      <c r="A212" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="B212" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C212" s="41" t="s">
-        <v>450</v>
-      </c>
-      <c r="D212" s="41" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="G212" s="41" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
-      <c r="A213" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="B213" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="C213" s="41" t="s">
-        <v>450</v>
-      </c>
-      <c r="D213" s="37" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="G213" s="41" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B214" s="41" t="s">
-        <v>113</v>
-      </c>
       <c r="C214" s="41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D214" s="41" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="G214" s="41" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="4" t="s">
-        <v>114</v>
+        <v>457</v>
       </c>
       <c r="B215" s="41" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C215" s="41" t="s">
-        <v>450</v>
-      </c>
-      <c r="D215" s="41" t="s">
-        <v>1133</v>
+        <v>448</v>
+      </c>
+      <c r="D215" s="37" t="s">
+        <v>1126</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F215" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="G215" s="41" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B216" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C216" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="D216" s="41" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="G216" s="41" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B217" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C217" s="41" t="s">
+        <v>448</v>
+      </c>
+      <c r="D217" s="41" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="G217" s="41" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="11" t="s">
         <v>820</v>
       </c>
-      <c r="G215" s="41" t="s">
+      <c r="B218" s="11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C218" s="11"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="11"/>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="B219" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="C219" s="28"/>
+      <c r="D219" s="56" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E219" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="F219" s="20" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="216" spans="1:7">
-      <c r="A216" s="11" t="s">
+      <c r="G219" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B216" s="11" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C216" s="11"/>
-      <c r="D216" s="11"/>
-      <c r="E216" s="11"/>
-      <c r="F216" s="11"/>
-      <c r="G216" s="11"/>
-    </row>
-    <row r="217" spans="1:7">
-      <c r="A217" s="23" t="s">
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="B217" s="23" t="s">
+      <c r="B220" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="C217" s="23"/>
-      <c r="D217" s="48" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E217" s="20" t="s">
-        <v>822</v>
-      </c>
-      <c r="F217" s="20" t="s">
+      <c r="C220" s="28"/>
+      <c r="D220" s="56" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E220" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="F220" s="20" t="s">
         <v>823</v>
       </c>
-      <c r="G217" s="20" t="s">
+      <c r="G220" s="20" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
-      <c r="A218" s="23" t="s">
+    <row r="221" spans="1:7">
+      <c r="A221" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B218" s="23" t="s">
+      <c r="B221" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="C218" s="23"/>
-      <c r="D218" s="48" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E218" s="20" t="s">
-        <v>822</v>
-      </c>
-      <c r="F218" s="20" t="s">
+      <c r="C221" s="28"/>
+      <c r="D221" s="56" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E221" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="F221" s="20" t="s">
         <v>825</v>
       </c>
-      <c r="G218" s="20" t="s">
+      <c r="G221" s="20" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
-      <c r="A219" s="23" t="s">
+    <row r="222" spans="1:7">
+      <c r="A222" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="B219" s="23" t="s">
+      <c r="B222" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="C219" s="23"/>
-      <c r="D219" s="48" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E219" s="20" t="s">
-        <v>822</v>
-      </c>
-      <c r="F219" s="20" t="s">
+      <c r="C222" s="28"/>
+      <c r="D222" s="56" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E222" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="F222" s="20" t="s">
         <v>827</v>
       </c>
-      <c r="G219" s="20" t="s">
+      <c r="G222" s="20" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
-      <c r="A220" s="23" t="s">
+    <row r="223" spans="1:7">
+      <c r="A223" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="B220" s="23" t="s">
+      <c r="B223" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="C220" s="23"/>
-      <c r="D220" s="48" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E220" s="20" t="s">
-        <v>822</v>
-      </c>
-      <c r="F220" s="20" t="s">
+      <c r="C223" s="28"/>
+      <c r="D223" s="56" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E223" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="F223" s="20" t="s">
         <v>829</v>
       </c>
-      <c r="G220" s="20" t="s">
+      <c r="G223" s="20" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
-      <c r="A221" s="23" t="s">
+    <row r="224" spans="1:7">
+      <c r="A224" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="B224" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C224" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="D224" s="56" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E224" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="F224" s="20" t="s">
+        <v>831</v>
+      </c>
+      <c r="G224" s="20" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C225" s="11"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11"/>
+      <c r="F225" s="11"/>
+      <c r="G225" s="11"/>
+    </row>
+    <row r="226" spans="1:7" ht="28">
+      <c r="A226" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="B226" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="C226" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="D226" s="49" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="42">
+      <c r="A227" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="42">
+      <c r="A228" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="28">
+      <c r="A229" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B229" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B221" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="C221" s="23"/>
-      <c r="D221" s="48" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E221" s="20" t="s">
-        <v>822</v>
-      </c>
-      <c r="F221" s="20" t="s">
-        <v>831</v>
-      </c>
-      <c r="G221" s="20" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
-      <c r="A222" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="B222" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="C222" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="D222" s="48" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E222" s="20" t="s">
-        <v>822</v>
-      </c>
-      <c r="F222" s="20" t="s">
-        <v>833</v>
-      </c>
-      <c r="G222" s="20" t="s">
+      <c r="C229" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="28">
+      <c r="A232" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C232" s="10" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="223" spans="1:7">
-      <c r="A223" s="11" t="s">
+      <c r="D232" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E232" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="B223" s="11" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C223" s="11"/>
-      <c r="D223" s="11"/>
-      <c r="E223" s="11"/>
-      <c r="F223" s="11"/>
-      <c r="G223" s="11"/>
-    </row>
-    <row r="224" spans="1:7" ht="28">
-      <c r="A224" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="B224" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="C224" s="23" t="s">
-        <v>447</v>
-      </c>
-      <c r="D224" s="50" t="s">
+      <c r="F232" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="42">
+      <c r="A233" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B233" s="10" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="B225" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C225" s="10"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B226" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C226" s="10"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="F226" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="G226" s="3" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" ht="28">
-      <c r="A227" s="3" t="s">
+      <c r="C233" s="10"/>
+      <c r="D233" s="10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C235" s="11"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
+      <c r="F235" s="11"/>
+      <c r="G235" s="11"/>
+    </row>
+    <row r="236" spans="1:7" ht="42">
+      <c r="A236" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B227" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E227" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="G227" s="3" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E228" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G228" s="3" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E229" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G229" s="3" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" ht="28">
-      <c r="A230" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="D230" s="3"/>
-      <c r="E230" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G230" s="3" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" ht="42">
-      <c r="A231" s="10" t="s">
+      <c r="B236" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="42">
+      <c r="A237" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B231" s="10" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C231" s="10"/>
-      <c r="D231" s="3"/>
-      <c r="E231" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="G231" s="3" t="s">
+      <c r="B237" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E237" s="3" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B232" s="10" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C232" s="10"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G232" s="3" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E233" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="F233" s="3" t="s">
-        <v>849</v>
-      </c>
-      <c r="G233" s="3" t="s">
+      <c r="F237" s="3" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B234" s="10" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C234" s="10"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="F234" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G234" s="3" t="s">
+      <c r="G237" s="3" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" ht="28">
-      <c r="A235" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C235" s="14" t="s">
-        <v>760</v>
-      </c>
-      <c r="D235" s="14"/>
-      <c r="E235" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F235" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="G235" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" ht="28">
-      <c r="A236" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C236" s="14" t="s">
-        <v>761</v>
-      </c>
-      <c r="D236" s="14"/>
-      <c r="E236" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F236" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="G236" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B237" s="11" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C237" s="11"/>
-      <c r="D237" s="11"/>
-      <c r="E237" s="11"/>
-      <c r="F237" s="11"/>
-      <c r="G237" s="11"/>
     </row>
     <row r="238" spans="1:7" ht="42">
       <c r="A238" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>355</v>
+        <v>185</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="E238" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="F238" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="F238" s="3" t="s">
+      <c r="G238" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="G238" s="3" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="42">
-      <c r="A239" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B239" s="3" t="s">
+    </row>
+    <row r="239" spans="1:7" hidden="1">
+      <c r="A239" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="B239" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="C239" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E239" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="F239" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="G239" s="3" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" ht="42">
-      <c r="A240" s="3" t="s">
+      <c r="C239" s="23"/>
+      <c r="D239" s="23"/>
+    </row>
+    <row r="240" spans="1:7" hidden="1">
+      <c r="A240" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="B240" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E240" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="F240" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="G240" s="3" t="s">
-        <v>858</v>
-      </c>
+      <c r="B240" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="C240" s="23"/>
+      <c r="D240" s="23"/>
     </row>
     <row r="241" spans="1:7" hidden="1">
       <c r="A241" s="23" t="s">
         <v>342</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C241" s="23"/>
       <c r="D241" s="23"/>
@@ -10848,7 +10883,7 @@
         <v>343</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C242" s="23"/>
       <c r="D242" s="23"/>
@@ -10878,37 +10913,37 @@
         <v>346</v>
       </c>
       <c r="B245" s="23" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C245" s="23"/>
       <c r="D245" s="23"/>
     </row>
     <row r="246" spans="1:7" hidden="1">
       <c r="A246" s="23" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="B246" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C246" s="23"/>
       <c r="D246" s="23"/>
     </row>
     <row r="247" spans="1:7" hidden="1">
       <c r="A247" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B247" s="23" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="C247" s="23"/>
       <c r="D247" s="23"/>
     </row>
     <row r="248" spans="1:7" hidden="1">
       <c r="A248" s="23" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B248" s="23" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C248" s="23"/>
       <c r="D248" s="23"/>
@@ -10918,7 +10953,7 @@
         <v>349</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C249" s="23"/>
       <c r="D249" s="23"/>
@@ -10928,7 +10963,7 @@
         <v>350</v>
       </c>
       <c r="B250" s="23" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="C250" s="23"/>
       <c r="D250" s="23"/>
@@ -10953,175 +10988,197 @@
       <c r="C252" s="23"/>
       <c r="D252" s="23"/>
     </row>
-    <row r="253" spans="1:7" hidden="1">
-      <c r="A253" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="B253" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="C253" s="23"/>
-      <c r="D253" s="23"/>
-    </row>
-    <row r="254" spans="1:7" hidden="1">
-      <c r="A254" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="B254" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="C254" s="23"/>
-      <c r="D254" s="23"/>
-    </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B255" s="11" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C255" s="11"/>
-      <c r="D255" s="11"/>
-    </row>
-    <row r="256" spans="1:7" ht="98">
-      <c r="A256" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="B256" s="31" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C256" s="31" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D256" s="35" t="s">
-        <v>1094</v>
+    <row r="253" spans="1:7">
+      <c r="A253" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C253" s="11"/>
+      <c r="D253" s="11"/>
+    </row>
+    <row r="254" spans="1:7" ht="98">
+      <c r="A254" s="57" t="s">
+        <v>387</v>
+      </c>
+      <c r="B254" s="57" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C254" s="31" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D254" s="35" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E254" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="F254" s="20" t="s">
+        <v>855</v>
+      </c>
+      <c r="G254" s="20" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="42">
+      <c r="A255" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="42">
+      <c r="A256" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="B256" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C256" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="D256" s="20" t="s">
+        <v>1092</v>
       </c>
       <c r="E256" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="F256" s="20" t="s">
         <v>859</v>
       </c>
-      <c r="F256" s="20" t="s">
+      <c r="G256" s="20" t="s">
         <v>860</v>
-      </c>
-      <c r="G256" s="20" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="42">
       <c r="A257" s="3" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="F257" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="G257" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="G257" s="3" t="s">
+    </row>
+    <row r="258" spans="1:7" ht="42">
+      <c r="A258" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="B258" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C258" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="D258" s="19" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E258" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="F258" s="20" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" ht="42">
-      <c r="A258" s="20" t="s">
+      <c r="G258" s="20" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="42">
+      <c r="A259" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="B258" s="20" t="s">
+      <c r="B259" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="C258" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="D258" s="20" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E258" s="20" t="s">
-        <v>859</v>
-      </c>
-      <c r="F258" s="20" t="s">
-        <v>864</v>
-      </c>
-      <c r="G258" s="20" t="s">
+      <c r="C259" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="D259" s="16" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="G259" s="3" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="42">
-      <c r="A259" s="3" t="s">
+    <row r="260" spans="1:7" ht="28">
+      <c r="A260" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B260" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C259" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E259" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="F259" s="3" t="s">
+      <c r="C260" s="10"/>
+      <c r="D260" s="15"/>
+      <c r="E260" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="42">
+      <c r="A261" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="B261" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="C261" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="D261" s="20" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E261" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="F261" s="20" t="s">
         <v>866</v>
       </c>
-      <c r="G259" s="3" t="s">
+      <c r="G261" s="20" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="42">
-      <c r="A260" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="B260" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="C260" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="D260" s="19" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E260" s="20" t="s">
-        <v>859</v>
-      </c>
-      <c r="F260" s="20" t="s">
-        <v>868</v>
-      </c>
-      <c r="G260" s="20" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="42">
-      <c r="A261" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="B261" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="C261" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="D261" s="16" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E261" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="F261" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="G261" s="3" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" ht="28">
+    <row r="262" spans="1:7">
       <c r="A262" s="10" t="s">
         <v>374</v>
       </c>
@@ -11129,57 +11186,61 @@
         <v>384</v>
       </c>
       <c r="C262" s="10"/>
-      <c r="D262" s="15"/>
+      <c r="D262" s="3"/>
       <c r="E262" s="3" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>882</v>
+        <v>798</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="42">
-      <c r="A263" s="20" t="s">
+      <c r="A263" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B263" s="20" t="s">
+      <c r="B263" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C263" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="D263" s="20" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E263" s="20" t="s">
-        <v>859</v>
-      </c>
-      <c r="F263" s="20" t="s">
+      <c r="C263" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="42">
+      <c r="A264" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="F264" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="G263" s="20" t="s">
+      <c r="G264" s="3" t="s">
         <v>872</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
-      <c r="A264" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="B264" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="C264" s="10"/>
-      <c r="D264" s="3"/>
-      <c r="E264" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="F264" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="G264" s="3" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="42">
@@ -11187,22 +11248,22 @@
         <v>377</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>387</v>
+        <v>85</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="F265" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="G265" s="3" t="s">
         <v>874</v>
-      </c>
-      <c r="G265" s="3" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="42">
@@ -11210,123 +11271,115 @@
         <v>378</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="F266" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="G266" s="47" t="s">
         <v>876</v>
       </c>
-      <c r="G266" s="3" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" ht="42">
-      <c r="A267" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E267" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="F267" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="G267" s="3" t="s">
-        <v>879</v>
-      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C267" s="11"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="11"/>
+      <c r="G267" s="11"/>
     </row>
     <row r="268" spans="1:7" ht="42">
       <c r="A268" s="3" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>859</v>
+        <v>879</v>
       </c>
       <c r="F268" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G268" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="G268" s="48" t="s">
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="B269" s="23" t="s">
+        <v>894</v>
+      </c>
+      <c r="C269" s="23"/>
+      <c r="D269" s="20"/>
+      <c r="E269" s="20" t="s">
+        <v>879</v>
+      </c>
+      <c r="F269" s="20" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B269" s="11" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C269" s="11"/>
-      <c r="D269" s="11"/>
-      <c r="E269" s="11"/>
-      <c r="F269" s="11"/>
-      <c r="G269" s="11"/>
-    </row>
-    <row r="270" spans="1:7" ht="42">
-      <c r="A270" s="3" t="s">
+      <c r="G269" s="20" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="28">
+      <c r="A270" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B270" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E270" s="3" t="s">
+      <c r="B270" s="23" t="s">
+        <v>895</v>
+      </c>
+      <c r="C270" s="23"/>
+      <c r="D270" s="20"/>
+      <c r="E270" s="20" t="s">
+        <v>879</v>
+      </c>
+      <c r="F270" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="G270" s="20" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="C271" s="10"/>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="G271" s="3" t="s">
         <v>884</v>
-      </c>
-      <c r="F270" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G270" s="3" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="B271" s="23" t="s">
-        <v>899</v>
-      </c>
-      <c r="C271" s="23"/>
-      <c r="D271" s="20"/>
-      <c r="E271" s="20" t="s">
-        <v>884</v>
-      </c>
-      <c r="F271" s="20" t="s">
-        <v>886</v>
-      </c>
-      <c r="G271" s="20" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="28">
@@ -11334,37 +11387,37 @@
         <v>392</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C272" s="23"/>
       <c r="D272" s="20"/>
       <c r="E272" s="20" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="F272" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="G272" s="20" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="28">
+      <c r="A273" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="B273" s="23" t="s">
+        <v>901</v>
+      </c>
+      <c r="C273" s="23"/>
+      <c r="D273" s="20"/>
+      <c r="E273" s="20" t="s">
+        <v>879</v>
+      </c>
+      <c r="F273" s="20" t="s">
         <v>887</v>
       </c>
-      <c r="G272" s="20" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B273" s="10" t="s">
-        <v>901</v>
-      </c>
-      <c r="C273" s="10"/>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="F273" s="3" t="s">
+      <c r="G273" s="20" t="s">
         <v>888</v>
-      </c>
-      <c r="G273" s="3" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="28">
@@ -11372,180 +11425,188 @@
         <v>394</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C274" s="23"/>
       <c r="D274" s="20"/>
       <c r="E274" s="20" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="F274" s="20" t="s">
+        <v>889</v>
+      </c>
+      <c r="G274" s="20" t="s">
         <v>890</v>
       </c>
-      <c r="G274" s="20" t="s">
+    </row>
+    <row r="275" spans="1:7" ht="28">
+      <c r="A275" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="B275" s="21" t="s">
+        <v>899</v>
+      </c>
+      <c r="C275" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="D275" s="21" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E275" s="20" t="s">
+        <v>879</v>
+      </c>
+      <c r="F275" s="20" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" ht="28">
-      <c r="A275" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="B275" s="23" t="s">
-        <v>906</v>
-      </c>
-      <c r="C275" s="23"/>
-      <c r="D275" s="20"/>
-      <c r="E275" s="20" t="s">
-        <v>884</v>
-      </c>
-      <c r="F275" s="20" t="s">
+      <c r="G275" s="20" t="s">
         <v>892</v>
       </c>
-      <c r="G275" s="20" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" ht="28">
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276" s="23" t="s">
         <v>396</v>
       </c>
       <c r="B276" s="23" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C276" s="23"/>
       <c r="D276" s="20"/>
       <c r="E276" s="20" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="F276" s="20" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G276" s="20" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" ht="28">
-      <c r="A277" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="B277" s="21" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C277" s="11"/>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
+      <c r="F277" s="11"/>
+      <c r="G277" s="11"/>
+    </row>
+    <row r="278" spans="1:7" ht="28">
+      <c r="A278" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="G278" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="C277" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="D277" s="21" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E277" s="20" t="s">
-        <v>884</v>
-      </c>
-      <c r="F277" s="20" t="s">
-        <v>896</v>
-      </c>
-      <c r="G277" s="20" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="B278" s="23" t="s">
+    </row>
+    <row r="279" spans="1:7" ht="28">
+      <c r="A279" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="F279" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="C278" s="23"/>
-      <c r="D278" s="20"/>
-      <c r="E278" s="20" t="s">
-        <v>884</v>
-      </c>
-      <c r="F278" s="20" t="s">
-        <v>898</v>
-      </c>
-      <c r="G278" s="20" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B279" s="11" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C279" s="11"/>
-      <c r="D279" s="11"/>
-      <c r="E279" s="11"/>
-      <c r="F279" s="11"/>
-      <c r="G279" s="11"/>
-    </row>
-    <row r="280" spans="1:7" ht="28">
+      <c r="G279" s="3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="42">
       <c r="A280" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>402</v>
+        <v>124</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="E280" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="F280" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="F280" s="3" t="s">
+      <c r="G280" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="G280" s="3" t="s">
+    </row>
+    <row r="281" spans="1:7" ht="42">
+      <c r="A281" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="B281" s="21" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C281" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="D281" s="21" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E281" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="F281" s="20" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" ht="28">
-      <c r="A281" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D281" s="3" t="s">
+      <c r="G281" s="20" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="42">
+      <c r="A282" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="B282" s="21" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C282" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="D282" s="21" t="s">
         <v>1109</v>
       </c>
-      <c r="E281" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="F281" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="G281" s="3" t="s">
+      <c r="E282" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="F282" s="20" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" ht="42">
-      <c r="A282" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E282" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="F282" s="3" t="s">
+      <c r="G282" s="20" t="s">
         <v>912</v>
-      </c>
-      <c r="G282" s="3" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="42">
@@ -11553,235 +11614,227 @@
         <v>405</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="C283" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D283" s="21" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="E283" s="20" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="F283" s="20" t="s">
+        <v>913</v>
+      </c>
+      <c r="G283" s="20" t="s">
         <v>914</v>
       </c>
-      <c r="G283" s="20" t="s">
+    </row>
+    <row r="284" spans="1:7" ht="28">
+      <c r="A284" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="F284" s="3" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" ht="42">
-      <c r="A284" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="B284" s="21" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C284" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="D284" s="21" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E284" s="20" t="s">
-        <v>907</v>
-      </c>
-      <c r="F284" s="20" t="s">
+      <c r="G284" s="3" t="s">
         <v>916</v>
-      </c>
-      <c r="G284" s="20" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="42">
       <c r="A285" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="B285" s="21" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C285" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="D285" s="21" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E285" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="F285" s="20" t="s">
+        <v>917</v>
+      </c>
+      <c r="G285" s="20" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="28">
+      <c r="A286" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="B285" s="21" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C285" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="D285" s="21" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E285" s="20" t="s">
-        <v>907</v>
-      </c>
-      <c r="F285" s="20" t="s">
-        <v>918</v>
-      </c>
-      <c r="G285" s="20" t="s">
+      <c r="B286" s="21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C286" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="D286" s="21" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E286" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="F286" s="20" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" ht="28">
-      <c r="A286" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E286" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="F286" s="3" t="s">
+      <c r="G286" s="20" t="s">
         <v>920</v>
       </c>
-      <c r="G286" s="3" t="s">
+    </row>
+    <row r="287" spans="1:7" ht="42">
+      <c r="A287" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="F287" s="3" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" ht="42">
-      <c r="A287" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="B287" s="21" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C287" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="D287" s="21" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E287" s="20" t="s">
-        <v>907</v>
-      </c>
-      <c r="F287" s="20" t="s">
+      <c r="G287" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="G287" s="20" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" ht="28">
-      <c r="A288" s="21" t="s">
-        <v>409</v>
-      </c>
-      <c r="B288" s="21" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C288" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="D288" s="21" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E288" s="20" t="s">
-        <v>907</v>
-      </c>
-      <c r="F288" s="20" t="s">
-        <v>924</v>
-      </c>
-      <c r="G288" s="20" t="s">
-        <v>925</v>
-      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C288" s="11"/>
+      <c r="D288" s="11"/>
+      <c r="E288" s="11"/>
+      <c r="F288" s="11"/>
+      <c r="G288" s="11"/>
     </row>
     <row r="289" spans="1:7" ht="42">
       <c r="A289" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B289" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="28">
+      <c r="A290" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C291" s="11"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="11"/>
+      <c r="F291" s="11"/>
+      <c r="G291" s="11"/>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="C289" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E289" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="F289" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="G289" s="3" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B290" s="11" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C290" s="11"/>
-      <c r="D290" s="11"/>
-      <c r="E290" s="11"/>
-      <c r="F290" s="11"/>
-      <c r="G290" s="11"/>
-    </row>
-    <row r="291" spans="1:7" ht="42">
-      <c r="A291" s="3" t="s">
+      <c r="B292" s="28"/>
+      <c r="C292" s="28"/>
+      <c r="D292" s="19"/>
+      <c r="E292" s="20" t="s">
+        <v>923</v>
+      </c>
+      <c r="F292" s="20" t="s">
+        <v>928</v>
+      </c>
+      <c r="G292" s="20" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="42">
+      <c r="A293" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="B291" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E291" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="F291" s="3" t="s">
+      <c r="B293" s="21"/>
+      <c r="C293" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="D293" s="21" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E293" s="20" t="s">
+        <v>923</v>
+      </c>
+      <c r="F293" s="20" t="s">
+        <v>930</v>
+      </c>
+      <c r="G293" s="20" t="s">
         <v>929</v>
       </c>
-      <c r="G291" s="3" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" ht="28">
-      <c r="A292" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E292" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="F292" s="3" t="s">
-        <v>931</v>
-      </c>
-      <c r="G292" s="3" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B293" s="11" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C293" s="11"/>
-      <c r="D293" s="11"/>
-      <c r="E293" s="11"/>
-      <c r="F293" s="11"/>
-      <c r="G293" s="11"/>
-    </row>
-    <row r="294" spans="1:7">
+    </row>
+    <row r="294" spans="1:7" ht="28">
       <c r="A294" s="28" t="s">
         <v>414</v>
       </c>
@@ -11789,13 +11842,13 @@
       <c r="C294" s="28"/>
       <c r="D294" s="19"/>
       <c r="E294" s="20" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="F294" s="20" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G294" s="20" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="42">
@@ -11804,74 +11857,36 @@
       </c>
       <c r="B295" s="21"/>
       <c r="C295" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D295" s="21" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="E295" s="20" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="F295" s="20" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="G295" s="20" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" ht="28">
-      <c r="A296" s="28" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="B296" s="28"/>
-      <c r="C296" s="28"/>
-      <c r="D296" s="19"/>
+      <c r="B296" s="31"/>
+      <c r="C296" s="31"/>
+      <c r="D296" s="21"/>
       <c r="E296" s="20" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="F296" s="20" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="G296" s="20" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" ht="42">
-      <c r="A297" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="B297" s="21"/>
-      <c r="C297" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="D297" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E297" s="20" t="s">
-        <v>928</v>
-      </c>
-      <c r="F297" s="20" t="s">
-        <v>937</v>
-      </c>
-      <c r="G297" s="20" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
-      <c r="A298" s="31" t="s">
-        <v>418</v>
-      </c>
-      <c r="B298" s="31"/>
-      <c r="C298" s="31"/>
-      <c r="D298" s="21"/>
-      <c r="E298" s="20" t="s">
-        <v>928</v>
-      </c>
-      <c r="F298" s="20" t="s">
-        <v>938</v>
-      </c>
-      <c r="G298" s="20" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Court_Case_Query_Results/artifacts/service_model/information_model/IEPD/documentation/Court_Case_Query_Results-Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Court_Case_Query_Results/artifacts/service_model/information_model/IEPD/documentation/Court_Case_Query_Results-Mapping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="1171">
   <si>
     <t>Race</t>
   </si>
@@ -1191,27 +1191,15 @@
     <t>days to complete</t>
   </si>
   <si>
-    <t>complete in</t>
-  </si>
-  <si>
     <t>date to complete by</t>
   </si>
   <si>
     <t>hours assigned</t>
   </si>
   <si>
-    <t>modification date</t>
-  </si>
-  <si>
-    <t>other hours complete</t>
-  </si>
-  <si>
     <t>other terms</t>
   </si>
   <si>
-    <t>cost/hour</t>
-  </si>
-  <si>
     <t>A title or name of a class or treatment program a student or patient is participating in</t>
   </si>
   <si>
@@ -1257,21 +1245,12 @@
     <t>victim name</t>
   </si>
   <si>
-    <t>restitution adjustment</t>
-  </si>
-  <si>
     <t>restitution paid</t>
   </si>
   <si>
-    <t>restitution available</t>
-  </si>
-  <si>
     <t>restitution balance</t>
   </si>
   <si>
-    <t>restitution hold date</t>
-  </si>
-  <si>
     <t xml:space="preserve">victim seeks restitution </t>
   </si>
   <si>
@@ -2667,9 +2646,6 @@
     <t>DaysToComplete</t>
   </si>
   <si>
-    <t>CompleteIn</t>
-  </si>
-  <si>
     <t>CompleteByDate</t>
   </si>
   <si>
@@ -2682,51 +2658,24 @@
     <t>VW_SENTENCE/OTHER_HOURS_ASSIGNED</t>
   </si>
   <si>
-    <t>Modify</t>
-  </si>
-  <si>
-    <t>VW_SENTENCE/OTHER_MODIFIED_DATE</t>
-  </si>
-  <si>
-    <t>HoursTotal</t>
-  </si>
-  <si>
-    <t>VW_SENTENCE/OTHER_HOURS_COMPLETED</t>
-  </si>
-  <si>
     <t>Terms</t>
   </si>
   <si>
     <t>VW_SENTENCE/OTHER_TERMS</t>
   </si>
   <si>
-    <t>CostPerHour</t>
-  </si>
-  <si>
     <t>days required to complete</t>
   </si>
   <si>
-    <t>number of days given to complete program</t>
-  </si>
-  <si>
     <t>date to complete program by</t>
   </si>
   <si>
     <t>number of hours given to complete program</t>
   </si>
   <si>
-    <t>number of hours completed in other program</t>
-  </si>
-  <si>
     <t>sentence terms</t>
   </si>
   <si>
-    <t>cost per hour for program</t>
-  </si>
-  <si>
-    <t>date program modifications made</t>
-  </si>
-  <si>
     <t>ProbationSupervision</t>
   </si>
   <si>
@@ -2805,22 +2754,13 @@
     <t>CASE_ROLE/ALLEGED_RESTITUTION</t>
   </si>
   <si>
-    <t>TotalAdjustment</t>
-  </si>
-  <si>
     <t>functions in Data Dictionary</t>
   </si>
   <si>
     <t>TotalPaid</t>
   </si>
   <si>
-    <t>TotalAvailableForDisbursement</t>
-  </si>
-  <si>
     <t>Balance</t>
-  </si>
-  <si>
-    <t>ManualHoldDate</t>
   </si>
   <si>
     <t>x-path from sample file</t>
@@ -3581,6 +3521,21 @@
   </si>
   <si>
     <t>ccq-res-doc:CourtCaseQueryResults/j:Citation/ccq-res-ext:CitationAugmentation/ccq-res-ext:NuclearMaterialsIndicator</t>
+  </si>
+  <si>
+    <t>ccq-res-doc:CourtCaseQueryResults/nc:Program/nc:ProgramCondition/nc:ConditionAugmentation/ccq-res-ext:ProgramDaysToComplete</t>
+  </si>
+  <si>
+    <t>ccq-res-doc:CourtCaseQueryResults/nc:Program/nc:ProgramCondition/nc:ConditionAugmentation/ccq-res-ext:ProgramCompleteByDate/nc:Date</t>
+  </si>
+  <si>
+    <t>ccq-res-doc:CourtCaseQueryResults/nc:Program/nc:ProgramCondition/nc:ConditionAugmentation/ccq-res-ext:ProgramHoursToComplete</t>
+  </si>
+  <si>
+    <t>ccq-res-doc:CourtCaseQueryResults/nc:Case/j:CaseAugmentation/j:CaseCharge/j:ChargeSentence/ccq-res-ext:SentenceConcurrentIndicator</t>
+  </si>
+  <si>
+    <t>ccq-res-doc:CourtCaseQueryResults/nc:Case/j:CaseAugmentation/j:CaseCharge/j:ChargeSentence/nc:OrganizationName</t>
   </si>
 </sst>
 </file>
@@ -3758,7 +3713,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="781">
+  <cellStyleXfs count="785">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3914,6 +3869,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4698,9 +4657,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4711,8 +4667,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="781">
+  <cellStyles count="785">
     <cellStyle name="Calculation" xfId="154" builtinId="22"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -5103,6 +5062,8 @@
     <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -5492,6 +5453,8 @@
     <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -5822,11 +5785,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J296"/>
+  <dimension ref="A1:J289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D175" sqref="D175:D176"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5861,24 +5824,24 @@
         <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>934</v>
+        <v>914</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1143</v>
+        <v>1123</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5894,19 +5857,19 @@
         <v>24</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28">
@@ -5917,27 +5880,27 @@
         <v>25</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>935</v>
+        <v>915</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1144</v>
+        <v>1124</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5947,56 +5910,56 @@
     </row>
     <row r="7" spans="1:7" ht="28">
       <c r="A7" s="45" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>937</v>
+        <v>917</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="45" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>938</v>
+        <v>918</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1144</v>
+        <v>1124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -6012,19 +5975,19 @@
         <v>21</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>939</v>
+        <v>919</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6035,19 +5998,19 @@
         <v>28</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6058,19 +6021,19 @@
         <v>30</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>941</v>
+        <v>921</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6081,37 +6044,37 @@
         <v>125</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>942</v>
+        <v>922</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>469</v>
-      </c>
       <c r="G13" s="5" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28">
       <c r="A14" s="3" t="s">
-        <v>1156</v>
+        <v>1136</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1154</v>
+        <v>1134</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
+        <v>1135</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
     </row>
     <row r="15" spans="1:7" ht="42">
       <c r="A15" s="3" t="s">
@@ -6121,19 +6084,19 @@
         <v>128</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>943</v>
+        <v>923</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30">
@@ -6144,19 +6107,19 @@
         <v>129</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>949</v>
+        <v>929</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6167,19 +6130,19 @@
         <v>131</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>950</v>
+        <v>930</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="56">
@@ -6190,40 +6153,40 @@
         <v>40</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>951</v>
+        <v>931</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="42">
       <c r="A19" s="25" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>952</v>
+        <v>932</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="26" t="s">
-        <v>1158</v>
+        <v>1138</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="H19" s="41"/>
       <c r="I19" s="41"/>
@@ -6237,19 +6200,19 @@
         <v>170</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>953</v>
+        <v>933</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -6261,19 +6224,19 @@
         <v>137</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>954</v>
+        <v>934</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="42">
@@ -6284,19 +6247,19 @@
         <v>145</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="28">
@@ -6307,19 +6270,19 @@
         <v>146</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>956</v>
+        <v>936</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="28">
@@ -6330,19 +6293,19 @@
         <v>147</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>957</v>
+        <v>937</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="42">
@@ -6353,19 +6316,19 @@
         <v>149</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>958</v>
+        <v>938</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="28">
@@ -6376,19 +6339,19 @@
         <v>148</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="28">
@@ -6396,43 +6359,43 @@
         <v>151</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>960</v>
+        <v>940</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="28">
       <c r="A28" s="33" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>1165</v>
+        <v>1145</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="27" t="s">
-        <v>1166</v>
+        <v>1146</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="28">
@@ -6440,22 +6403,22 @@
         <v>166</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>962</v>
+        <v>942</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="28">
@@ -6463,22 +6426,22 @@
         <v>167</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>961</v>
+        <v>941</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28">
@@ -6486,22 +6449,22 @@
         <v>168</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>963</v>
+        <v>943</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="28">
@@ -6509,30 +6472,30 @@
         <v>169</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>965</v>
+        <v>945</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1145</v>
+        <v>1125</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -6549,16 +6512,16 @@
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="6" t="s">
-        <v>1164</v>
+        <v>1144</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6569,19 +6532,19 @@
         <v>32</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>966</v>
+        <v>946</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="28">
@@ -6592,27 +6555,27 @@
         <v>138</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>967</v>
+        <v>947</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -6628,19 +6591,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>968</v>
+        <v>948</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="42">
@@ -6651,19 +6614,19 @@
         <v>38</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="28" hidden="1">
@@ -6679,7 +6642,7 @@
         <v>152</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -6695,27 +6658,27 @@
         <v>115</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>970</v>
+        <v>950</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="11" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -6731,27 +6694,27 @@
         <v>185</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>971</v>
+        <v>951</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -6764,51 +6727,51 @@
         <v>165</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>1159</v>
+        <v>1139</v>
       </c>
       <c r="C46" s="27"/>
       <c r="D46" s="27" t="s">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="28">
       <c r="A47" s="18" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>972</v>
+        <v>952</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="11" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -6824,42 +6787,42 @@
         <v>266</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>974</v>
+        <v>954</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="42">
       <c r="A50" s="41" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B50" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>975</v>
+        <v>955</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="28">
@@ -6870,19 +6833,19 @@
         <v>267</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>976</v>
+        <v>956</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="42">
@@ -6893,19 +6856,19 @@
         <v>268</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>977</v>
+        <v>957</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>541</v>
-      </c>
       <c r="G52" s="3" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="42">
@@ -6916,19 +6879,19 @@
         <v>269</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>978</v>
+        <v>958</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="28">
@@ -6936,22 +6899,22 @@
         <v>265</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>979</v>
+        <v>959</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="28">
@@ -6959,22 +6922,22 @@
         <v>207</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="28">
@@ -6985,19 +6948,19 @@
         <v>163</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>981</v>
+        <v>961</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -7009,24 +6972,24 @@
       </c>
       <c r="C57" s="32"/>
       <c r="D57" s="32" t="s">
-        <v>1161</v>
+        <v>1141</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="11" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -7042,19 +7005,19 @@
         <v>273</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>982</v>
+        <v>962</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="42">
@@ -7065,19 +7028,19 @@
         <v>274</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>983</v>
+        <v>963</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="42">
@@ -7088,16 +7051,16 @@
         <v>275</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>984</v>
+        <v>964</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="42">
@@ -7108,19 +7071,19 @@
         <v>276</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>984</v>
+        <v>964</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="28">
@@ -7131,19 +7094,19 @@
         <v>272</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>985</v>
+        <v>965</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="42">
@@ -7154,19 +7117,19 @@
         <v>264</v>
       </c>
       <c r="C64" s="47" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>986</v>
+        <v>966</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="42">
@@ -7177,19 +7140,19 @@
         <v>271</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>989</v>
+        <v>969</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="42">
@@ -7200,19 +7163,19 @@
         <v>270</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="G66" s="41" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="42">
@@ -7224,16 +7187,16 @@
       </c>
       <c r="C67" s="48"/>
       <c r="D67" s="43" t="s">
-        <v>1162</v>
+        <v>1142</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="56">
@@ -7244,50 +7207,50 @@
         <v>286</v>
       </c>
       <c r="C68" s="49" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>988</v>
+        <v>968</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="28">
       <c r="A69" s="45" t="s">
-        <v>1138</v>
+        <v>1118</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>1139</v>
+        <v>1119</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>987</v>
+        <v>967</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="11" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -7303,19 +7266,19 @@
         <v>83</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D71" s="41" t="s">
-        <v>1083</v>
+        <v>1063</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G71" s="41" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="42">
@@ -7326,19 +7289,19 @@
         <v>85</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>1084</v>
+        <v>1064</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="42">
@@ -7349,19 +7312,19 @@
         <v>86</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>1085</v>
+        <v>1065</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G73" s="41" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="42">
@@ -7372,19 +7335,19 @@
         <v>88</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>1086</v>
+        <v>1066</v>
       </c>
       <c r="E74" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="G74" s="41" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="42">
@@ -7395,19 +7358,19 @@
         <v>90</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>1087</v>
+        <v>1067</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G75" s="41" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="42">
@@ -7418,27 +7381,27 @@
         <v>96</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>1088</v>
+        <v>1068</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G76" s="41" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="11" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -7454,19 +7417,19 @@
         <v>293</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>944</v>
+        <v>924</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="42">
@@ -7477,19 +7440,19 @@
         <v>299</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>945</v>
+        <v>925</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="42">
@@ -7500,19 +7463,19 @@
         <v>300</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>946</v>
+        <v>926</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G80" s="47" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="42">
@@ -7523,19 +7486,19 @@
         <v>301</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>947</v>
+        <v>927</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G81" s="47" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="42">
@@ -7546,27 +7509,27 @@
         <v>302</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>948</v>
+        <v>928</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -7579,30 +7542,30 @@
         <v>42</v>
       </c>
       <c r="B84" s="41" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>993</v>
+        <v>973</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="11" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -7618,19 +7581,19 @@
         <v>42</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D86" s="41" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G86" s="41" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="42">
@@ -7641,19 +7604,19 @@
         <v>70</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D87" s="41" t="s">
-        <v>995</v>
+        <v>975</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="G87" s="41" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="42">
@@ -7661,30 +7624,30 @@
         <v>219</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D88" s="41" t="s">
-        <v>996</v>
+        <v>976</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="11" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -7700,19 +7663,19 @@
         <v>134</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D90" s="41" t="s">
-        <v>998</v>
+        <v>978</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="28">
@@ -7723,27 +7686,27 @@
         <v>144</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D91" s="41" t="s">
-        <v>997</v>
+        <v>977</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -7759,19 +7722,19 @@
         <v>183</v>
       </c>
       <c r="C93" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="D93" s="22" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>462</v>
-      </c>
       <c r="F93" s="3" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G93" s="29" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -7783,16 +7746,16 @@
       </c>
       <c r="C94" s="33"/>
       <c r="D94" s="22" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="28">
@@ -7804,16 +7767,16 @@
       </c>
       <c r="C95" s="33"/>
       <c r="D95" s="22" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="28">
@@ -7825,16 +7788,16 @@
       </c>
       <c r="C96" s="33"/>
       <c r="D96" s="22" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G96" s="46" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="28">
@@ -7846,24 +7809,24 @@
       </c>
       <c r="C97" s="33"/>
       <c r="D97" s="22" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="G97" s="46" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="28">
       <c r="A98" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -7876,43 +7839,43 @@
         <v>188</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>1141</v>
+        <v>1121</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D99" s="50" t="s">
-        <v>1140</v>
+        <v>1120</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F99" s="17" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="42">
       <c r="A100" s="51" t="s">
-        <v>1142</v>
+        <v>1122</v>
       </c>
       <c r="B100" s="51" t="s">
-        <v>1174</v>
+        <v>1154</v>
       </c>
       <c r="C100" s="51"/>
       <c r="D100" s="51" t="s">
-        <v>1177</v>
+        <v>1157</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F100" s="17" t="s">
-        <v>1175</v>
+        <v>1155</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>1176</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="42">
@@ -7923,19 +7886,19 @@
         <v>44</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>1153</v>
+        <v>1133</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F101" s="17" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="28">
@@ -7946,19 +7909,19 @@
         <v>46</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>999</v>
+        <v>979</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="28">
@@ -7969,19 +7932,19 @@
         <v>48</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -7992,19 +7955,19 @@
         <v>50</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -8015,19 +7978,19 @@
         <v>52</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>1002</v>
+        <v>982</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -8038,19 +8001,19 @@
         <v>54</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D106" s="41" t="s">
-        <v>1003</v>
+        <v>983</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="G106" s="41" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -8061,19 +8024,19 @@
         <v>189</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D107" s="41" t="s">
-        <v>1004</v>
+        <v>984</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="56">
@@ -8081,22 +8044,22 @@
         <v>191</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>1005</v>
+        <v>985</v>
       </c>
       <c r="C108" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D108" s="41" t="s">
-        <v>1006</v>
+        <v>986</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -8107,19 +8070,19 @@
         <v>56</v>
       </c>
       <c r="C109" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D109" s="41" t="s">
-        <v>1007</v>
+        <v>987</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="G109" s="41" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -8130,19 +8093,19 @@
         <v>57</v>
       </c>
       <c r="C110" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D110" s="41" t="s">
-        <v>1008</v>
+        <v>988</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -8153,19 +8116,19 @@
         <v>58</v>
       </c>
       <c r="C111" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D111" s="41" t="s">
-        <v>1009</v>
+        <v>989</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G111" s="41" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="28">
@@ -8176,19 +8139,19 @@
         <v>59</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D112" s="41" t="s">
-        <v>1010</v>
+        <v>990</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="30" customHeight="1">
@@ -8200,16 +8163,16 @@
       </c>
       <c r="C113" s="26"/>
       <c r="D113" s="41" t="s">
-        <v>1011</v>
+        <v>991</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -8220,19 +8183,19 @@
         <v>61</v>
       </c>
       <c r="C114" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D114" s="41" t="s">
-        <v>1013</v>
+        <v>993</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -8243,19 +8206,19 @@
         <v>62</v>
       </c>
       <c r="C115" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D115" s="41" t="s">
-        <v>1014</v>
+        <v>994</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="56">
@@ -8263,22 +8226,22 @@
         <v>4</v>
       </c>
       <c r="B116" s="44" t="s">
-        <v>1168</v>
+        <v>1148</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>1169</v>
+        <v>1149</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="28">
@@ -8289,19 +8252,19 @@
         <v>117</v>
       </c>
       <c r="C117" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D117" s="41" t="s">
-        <v>1015</v>
+        <v>995</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="42">
@@ -8309,22 +8272,22 @@
         <v>6</v>
       </c>
       <c r="B118" s="32" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>1167</v>
+        <v>1147</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="42">
@@ -8335,19 +8298,19 @@
         <v>63</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>1016</v>
+        <v>996</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="42">
@@ -8358,19 +8321,19 @@
         <v>64</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>1017</v>
+        <v>997</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="42">
@@ -8381,19 +8344,19 @@
         <v>118</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>1021</v>
+        <v>1001</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="42">
@@ -8404,19 +8367,19 @@
         <v>199</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="42">
@@ -8427,19 +8390,19 @@
         <v>200</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>1019</v>
+        <v>999</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="42">
@@ -8450,19 +8413,19 @@
         <v>201</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>1018</v>
+        <v>998</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="42">
@@ -8470,22 +8433,22 @@
         <v>202</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D125" s="51" t="s">
-        <v>1172</v>
+        <v>1152</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="28">
@@ -8493,22 +8456,22 @@
         <v>203</v>
       </c>
       <c r="B126" s="17" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>1022</v>
+        <v>1002</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -8516,22 +8479,22 @@
         <v>204</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D127" s="26" t="s">
-        <v>1170</v>
+        <v>1150</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="42">
@@ -8542,19 +8505,19 @@
         <v>119</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>1012</v>
+        <v>992</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="28">
@@ -8562,28 +8525,28 @@
         <v>206</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C129" s="23"/>
       <c r="D129" s="23" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F129" s="23" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="G129" s="23" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="11" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="11"/>
@@ -8597,19 +8560,19 @@
       </c>
       <c r="B131" s="7"/>
       <c r="C131" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>1024</v>
+        <v>1004</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="42">
@@ -8618,19 +8581,19 @@
       </c>
       <c r="B132" s="7"/>
       <c r="C132" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>1025</v>
+        <v>1005</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="42">
@@ -8639,19 +8602,19 @@
       </c>
       <c r="B133" s="7"/>
       <c r="C133" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>1026</v>
+        <v>1006</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="42">
@@ -8660,19 +8623,19 @@
       </c>
       <c r="B134" s="7"/>
       <c r="C134" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>1027</v>
+        <v>1007</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="42">
@@ -8681,19 +8644,19 @@
       </c>
       <c r="B135" s="7"/>
       <c r="C135" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>1028</v>
+        <v>1008</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="42">
@@ -8702,19 +8665,19 @@
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>1029</v>
+        <v>1009</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="42">
@@ -8723,27 +8686,27 @@
       </c>
       <c r="B137" s="7"/>
       <c r="C137" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>1030</v>
+        <v>1010</v>
       </c>
       <c r="E137" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G137" s="3" t="s">
         <v>671</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="28">
       <c r="A138" s="11" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
@@ -8755,10 +8718,10 @@
       <c r="A139" s="15"/>
       <c r="B139" s="15"/>
       <c r="C139" s="31" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D139" s="35" t="s">
-        <v>1031</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -8769,19 +8732,19 @@
         <v>208</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>1032</v>
+        <v>1012</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="28">
@@ -8792,19 +8755,19 @@
         <v>65</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>1033</v>
+        <v>1013</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -8813,19 +8776,19 @@
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>1034</v>
+        <v>1014</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -8836,10 +8799,10 @@
         <v>66</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>1035</v>
+        <v>1015</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>9</v>
@@ -8848,7 +8811,7 @@
         <v>10</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -8859,19 +8822,19 @@
         <v>67</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>1036</v>
+        <v>1016</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -8882,27 +8845,27 @@
         <v>68</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>1037</v>
+        <v>1017</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="28">
       <c r="A146" s="11" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
@@ -8914,10 +8877,10 @@
       <c r="A147" s="15"/>
       <c r="B147" s="52"/>
       <c r="C147" s="31" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D147" s="39" t="s">
-        <v>1039</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="42">
@@ -8928,19 +8891,19 @@
         <v>120</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>1038</v>
+        <v>1018</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="42">
@@ -8951,19 +8914,19 @@
         <v>213</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>1040</v>
+        <v>1020</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="42">
@@ -8974,19 +8937,19 @@
         <v>260</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D150" s="45" t="s">
-        <v>1040</v>
+        <v>1020</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="28">
@@ -8997,19 +8960,19 @@
         <v>218</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D151" s="45" t="s">
-        <v>1041</v>
+        <v>1021</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -9017,7 +8980,7 @@
         <v>11</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
@@ -9033,19 +8996,19 @@
         <v>221</v>
       </c>
       <c r="C153" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D153" s="41" t="s">
-        <v>1042</v>
+        <v>1022</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="28">
@@ -9056,19 +9019,19 @@
         <v>240</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D154" s="19" t="s">
-        <v>1056</v>
+        <v>1036</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="28">
@@ -9079,19 +9042,19 @@
         <v>243</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>1057</v>
+        <v>1037</v>
       </c>
       <c r="E155" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -9102,19 +9065,19 @@
         <v>184</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D156" s="41" t="s">
-        <v>1043</v>
+        <v>1023</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="28">
@@ -9122,22 +9085,22 @@
         <v>307</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="28">
@@ -9145,22 +9108,22 @@
         <v>308</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D158" s="19" t="s">
-        <v>1053</v>
+        <v>1033</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="28">
@@ -9168,22 +9131,22 @@
         <v>309</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>1055</v>
+        <v>1035</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="28">
@@ -9191,22 +9154,22 @@
         <v>310</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D160" s="19" t="s">
-        <v>1054</v>
+        <v>1034</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="84">
@@ -9217,19 +9180,19 @@
         <v>246</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>1046</v>
+        <v>1026</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="42">
@@ -9240,19 +9203,19 @@
         <v>247</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>1045</v>
+        <v>1025</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="42">
@@ -9263,19 +9226,19 @@
         <v>248</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>1044</v>
+        <v>1024</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="42">
@@ -9286,19 +9249,19 @@
         <v>229</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>1048</v>
+        <v>1028</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="42">
@@ -9309,19 +9272,19 @@
         <v>230</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>1049</v>
+        <v>1029</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="42">
@@ -9332,19 +9295,19 @@
         <v>249</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>1050</v>
+        <v>1030</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="42">
@@ -9355,19 +9318,19 @@
         <v>250</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>1047</v>
+        <v>1027</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="42">
@@ -9378,19 +9341,19 @@
         <v>233</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>1051</v>
+        <v>1031</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="28">
@@ -9401,19 +9364,19 @@
         <v>251</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D169" s="19" t="s">
-        <v>1058</v>
+        <v>1038</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="28">
@@ -9424,10 +9387,10 @@
         <v>253</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D170" s="19" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>11</v>
@@ -9436,7 +9399,7 @@
         <v>13</v>
       </c>
       <c r="G170" s="47" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="28">
@@ -9447,19 +9410,19 @@
         <v>254</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D171" s="19" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="28">
@@ -9470,19 +9433,19 @@
         <v>257</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D172" s="19" t="s">
-        <v>1061</v>
+        <v>1041</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="28">
@@ -9493,19 +9456,19 @@
         <v>258</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D173" s="19" t="s">
-        <v>1062</v>
+        <v>1042</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="28">
@@ -9516,19 +9479,19 @@
         <v>259</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D174" s="19" t="s">
-        <v>1063</v>
+        <v>1043</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="28">
@@ -9539,19 +9502,19 @@
         <v>255</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>1184</v>
+        <v>1164</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="28">
@@ -9562,19 +9525,19 @@
         <v>256</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>1185</v>
+        <v>1165</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="28">
@@ -9582,28 +9545,28 @@
         <v>127</v>
       </c>
       <c r="B177" s="32" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="C177" s="48"/>
       <c r="D177" s="28" t="s">
-        <v>1173</v>
+        <v>1153</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="11" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
@@ -9613,25 +9576,25 @@
     </row>
     <row r="179" spans="1:7" ht="28">
       <c r="A179" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>1064</v>
+        <v>1044</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="56">
@@ -9642,19 +9605,19 @@
         <v>241</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="56">
@@ -9665,19 +9628,19 @@
         <v>242</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>1067</v>
+        <v>1047</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="28">
@@ -9688,10 +9651,10 @@
         <v>252</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>1066</v>
+        <v>1046</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>11</v>
@@ -9700,7 +9663,7 @@
         <v>12</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -9708,7 +9671,7 @@
         <v>7</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
@@ -9724,19 +9687,19 @@
         <v>72</v>
       </c>
       <c r="C184" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D184" s="41" t="s">
-        <v>1068</v>
+        <v>1048</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="G184" s="41" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -9747,19 +9710,19 @@
         <v>74</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>1069</v>
+        <v>1049</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="G185" s="41" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -9770,19 +9733,19 @@
         <v>76</v>
       </c>
       <c r="C186" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D186" s="41" t="s">
-        <v>1070</v>
+        <v>1050</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="G186" s="41" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="42">
@@ -9793,19 +9756,19 @@
         <v>78</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>1072</v>
+        <v>1052</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="G187" s="41" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="70">
@@ -9816,19 +9779,19 @@
         <v>303</v>
       </c>
       <c r="C188" s="26" t="s">
-        <v>973</v>
+        <v>953</v>
       </c>
       <c r="D188" s="34" t="s">
-        <v>1163</v>
+        <v>1143</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="56">
@@ -9839,27 +9802,27 @@
         <v>80</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>1071</v>
+        <v>1051</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="G189" s="41" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="11" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>1149</v>
+        <v>1129</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
@@ -9873,19 +9836,19 @@
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>1072</v>
+        <v>1052</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="42">
@@ -9894,19 +9857,19 @@
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="21" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>1073</v>
+        <v>1053</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="42">
@@ -9915,27 +9878,27 @@
       </c>
       <c r="B193" s="3"/>
       <c r="C193" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D193" s="41" t="s">
-        <v>1074</v>
+        <v>1054</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="11" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>1150</v>
+        <v>1130</v>
       </c>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
@@ -9951,19 +9914,19 @@
         <v>92</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>1079</v>
+        <v>1059</v>
       </c>
       <c r="D195" s="41" t="s">
-        <v>1076</v>
+        <v>1056</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="G195" s="41" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="42">
@@ -9974,19 +9937,19 @@
         <v>94</v>
       </c>
       <c r="C196" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D196" s="41" t="s">
-        <v>1075</v>
+        <v>1055</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="G196" s="41" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="42">
@@ -9998,16 +9961,16 @@
       </c>
       <c r="C197" s="26"/>
       <c r="D197" s="26" t="s">
-        <v>1179</v>
+        <v>1159</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="G197" s="30" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="70">
@@ -10015,30 +9978,30 @@
         <v>312</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>1077</v>
+        <v>1057</v>
       </c>
       <c r="C198" s="26" t="s">
-        <v>1078</v>
+        <v>1058</v>
       </c>
       <c r="D198" s="26" t="s">
-        <v>1178</v>
+        <v>1158</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="G198" s="41" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="11" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>1151</v>
+        <v>1131</v>
       </c>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
@@ -10054,19 +10017,19 @@
         <v>116</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>1136</v>
+        <v>1116</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="42">
@@ -10074,22 +10037,22 @@
         <v>97</v>
       </c>
       <c r="B201" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F201" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="C201" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>794</v>
-      </c>
       <c r="G201" s="5" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -10100,19 +10063,19 @@
         <v>99</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>1137</v>
+        <v>1117</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="42">
@@ -10123,19 +10086,19 @@
         <v>101</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>1135</v>
+        <v>1115</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -10146,19 +10109,19 @@
         <v>103</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>1134</v>
+        <v>1114</v>
       </c>
       <c r="E204" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F204" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="F204" s="3" t="s">
-        <v>800</v>
-      </c>
       <c r="G204" s="5" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="28">
@@ -10169,27 +10132,27 @@
         <v>105</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>1133</v>
+        <v>1113</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="11" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
@@ -10198,15 +10161,15 @@
       <c r="G206" s="11"/>
     </row>
     <row r="207" spans="1:7" ht="28">
-      <c r="A207" s="55" t="s">
+      <c r="A207" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="B207" s="55" t="s">
-        <v>620</v>
+      <c r="B207" s="54" t="s">
+        <v>613</v>
       </c>
       <c r="C207" s="34"/>
       <c r="D207" s="38" t="s">
-        <v>1128</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -10217,19 +10180,19 @@
         <v>106</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>1129</v>
+        <v>1109</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -10240,19 +10203,19 @@
         <v>289</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D209" s="21" t="s">
-        <v>1129</v>
+        <v>1109</v>
       </c>
       <c r="E209" s="22" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="F209" s="22" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="G209" s="20" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="28">
@@ -10263,19 +10226,19 @@
         <v>107</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>1130</v>
+        <v>1110</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="56">
@@ -10286,19 +10249,19 @@
         <v>121</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>1131</v>
+        <v>1111</v>
       </c>
       <c r="E211" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F211" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="F211" s="3" t="s">
-        <v>811</v>
-      </c>
       <c r="G211" s="3" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -10306,7 +10269,7 @@
         <v>8</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
@@ -10319,13 +10282,13 @@
         <v>108</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C213" s="23" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D213" s="36" t="s">
-        <v>1124</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="28">
@@ -10336,42 +10299,42 @@
         <v>109</v>
       </c>
       <c r="C214" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D214" s="41" t="s">
-        <v>1125</v>
+        <v>1105</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="G214" s="41" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="4" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B215" s="41" t="s">
         <v>110</v>
       </c>
       <c r="C215" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D215" s="37" t="s">
-        <v>1126</v>
+        <v>1106</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G215" s="41" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -10382,19 +10345,19 @@
         <v>112</v>
       </c>
       <c r="C216" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D216" s="41" t="s">
-        <v>1127</v>
+        <v>1107</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="G216" s="41" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -10405,27 +10368,27 @@
         <v>114</v>
       </c>
       <c r="C217" s="41" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D217" s="41" t="s">
-        <v>1126</v>
+        <v>1106</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="G217" s="41" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="11" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>1152</v>
+        <v>1132</v>
       </c>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
@@ -10441,17 +10404,17 @@
         <v>314</v>
       </c>
       <c r="C219" s="28"/>
-      <c r="D219" s="56" t="s">
-        <v>1152</v>
+      <c r="D219" s="55" t="s">
+        <v>1132</v>
       </c>
       <c r="E219" s="20" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="F219" s="20" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="G219" s="20" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -10462,17 +10425,17 @@
         <v>315</v>
       </c>
       <c r="C220" s="28"/>
-      <c r="D220" s="56" t="s">
-        <v>1152</v>
+      <c r="D220" s="55" t="s">
+        <v>1132</v>
       </c>
       <c r="E220" s="20" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="F220" s="20" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="G220" s="20" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -10483,17 +10446,17 @@
         <v>316</v>
       </c>
       <c r="C221" s="28"/>
-      <c r="D221" s="56" t="s">
-        <v>1152</v>
+      <c r="D221" s="55" t="s">
+        <v>1132</v>
       </c>
       <c r="E221" s="20" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="F221" s="20" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="G221" s="20" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -10504,17 +10467,17 @@
         <v>317</v>
       </c>
       <c r="C222" s="28"/>
-      <c r="D222" s="56" t="s">
-        <v>1152</v>
+      <c r="D222" s="55" t="s">
+        <v>1132</v>
       </c>
       <c r="E222" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="F222" s="20" t="s">
         <v>820</v>
       </c>
-      <c r="F222" s="20" t="s">
-        <v>827</v>
-      </c>
       <c r="G222" s="20" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -10525,17 +10488,17 @@
         <v>318</v>
       </c>
       <c r="C223" s="28"/>
-      <c r="D223" s="56" t="s">
-        <v>1152</v>
+      <c r="D223" s="55" t="s">
+        <v>1132</v>
       </c>
       <c r="E223" s="20" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="F223" s="20" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="G223" s="20" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -10546,27 +10509,27 @@
         <v>319</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="D224" s="56" t="s">
-        <v>1152</v>
+        <v>441</v>
+      </c>
+      <c r="D224" s="55" t="s">
+        <v>1132</v>
       </c>
       <c r="E224" s="20" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="F224" s="20" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="G224" s="20" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="11" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
@@ -10575,17 +10538,17 @@
       <c r="G225" s="11"/>
     </row>
     <row r="226" spans="1:7" ht="28">
-      <c r="A226" s="58" t="s">
+      <c r="A226" s="57" t="s">
         <v>332</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C226" s="23" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D226" s="49" t="s">
-        <v>1118</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="42">
@@ -10597,16 +10560,16 @@
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="10" t="s">
-        <v>1181</v>
+        <v>1161</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="42">
@@ -10618,16 +10581,16 @@
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="10" t="s">
-        <v>1182</v>
+        <v>1162</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="28">
@@ -10638,19 +10601,19 @@
         <v>326</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>1119</v>
+        <v>1099</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -10661,19 +10624,19 @@
         <v>329</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -10684,19 +10647,19 @@
         <v>330</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>1121</v>
+        <v>1101</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="28">
@@ -10707,19 +10670,19 @@
         <v>331</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>1183</v>
+        <v>1163</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="42">
@@ -10727,51 +10690,51 @@
         <v>17</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>1123</v>
+        <v>1103</v>
       </c>
       <c r="C233" s="10"/>
       <c r="D233" s="10" t="s">
-        <v>1180</v>
+        <v>1160</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="3" t="s">
-        <v>991</v>
+        <v>971</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>992</v>
+        <v>972</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>1122</v>
+        <v>1102</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="11" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>1150</v>
+        <v>1130</v>
       </c>
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
@@ -10787,19 +10750,19 @@
         <v>353</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="42">
@@ -10810,19 +10773,19 @@
         <v>354</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>1081</v>
+        <v>1061</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="42">
@@ -10833,19 +10796,19 @@
         <v>185</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>1082</v>
+        <v>1062</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
     </row>
     <row r="239" spans="1:7" hidden="1">
@@ -10990,35 +10953,35 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="11" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>1150</v>
+        <v>1130</v>
       </c>
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
     </row>
     <row r="254" spans="1:7" ht="98">
-      <c r="A254" s="57" t="s">
+      <c r="A254" s="56" t="s">
         <v>387</v>
       </c>
-      <c r="B254" s="57" t="s">
-        <v>1171</v>
+      <c r="B254" s="56" t="s">
+        <v>1151</v>
       </c>
       <c r="C254" s="31" t="s">
-        <v>1090</v>
+        <v>1070</v>
       </c>
       <c r="D254" s="35" t="s">
-        <v>1089</v>
+        <v>1069</v>
       </c>
       <c r="E254" s="20" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="F254" s="20" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="G254" s="20" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="42">
@@ -11029,19 +10992,19 @@
         <v>355</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>1091</v>
+        <v>1071</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="42">
@@ -11052,19 +11015,19 @@
         <v>379</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D256" s="20" t="s">
-        <v>1092</v>
+        <v>1072</v>
       </c>
       <c r="E256" s="20" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="F256" s="20" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="G256" s="20" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="42">
@@ -11075,19 +11038,19 @@
         <v>380</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>1093</v>
+        <v>1073</v>
       </c>
       <c r="E257" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="F257" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="F257" s="3" t="s">
-        <v>861</v>
-      </c>
       <c r="G257" s="3" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="42">
@@ -11098,19 +11061,19 @@
         <v>367</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D258" s="19" t="s">
-        <v>1098</v>
+        <v>1078</v>
       </c>
       <c r="E258" s="20" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="F258" s="20" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="G258" s="20" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="42">
@@ -11121,22 +11084,22 @@
         <v>381</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D259" s="16" t="s">
-        <v>1099</v>
+        <v>1079</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" ht="28">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="42">
       <c r="A260" s="10" t="s">
         <v>372</v>
       </c>
@@ -11144,15 +11107,17 @@
         <v>382</v>
       </c>
       <c r="C260" s="10"/>
-      <c r="D260" s="15"/>
+      <c r="D260" s="32" t="s">
+        <v>1169</v>
+      </c>
       <c r="E260" s="3" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="42">
@@ -11163,22 +11128,22 @@
         <v>383</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D261" s="20" t="s">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="E261" s="20" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="F261" s="20" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="G261" s="20" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="42">
       <c r="A262" s="10" t="s">
         <v>374</v>
       </c>
@@ -11186,15 +11151,17 @@
         <v>384</v>
       </c>
       <c r="C262" s="10"/>
-      <c r="D262" s="3"/>
+      <c r="D262" s="32" t="s">
+        <v>1170</v>
+      </c>
       <c r="E262" s="3" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="42">
@@ -11205,19 +11172,19 @@
         <v>385</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>1096</v>
+        <v>1076</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="42">
@@ -11228,19 +11195,19 @@
         <v>386</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>1097</v>
+        <v>1077</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="42">
@@ -11251,19 +11218,19 @@
         <v>85</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>1094</v>
+        <v>1074</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="42">
@@ -11271,22 +11238,22 @@
         <v>378</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>1095</v>
+        <v>1075</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="G266" s="47" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -11294,7 +11261,7 @@
         <v>18</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="C267" s="11"/>
       <c r="D267" s="11"/>
@@ -11307,586 +11274,465 @@
         <v>388</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>1101</v>
+        <v>1081</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="F268" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G268" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="42">
+      <c r="A269" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="B269" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="C269" s="28"/>
+      <c r="D269" s="28" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E269" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="F269" s="20" t="s">
+        <v>874</v>
+      </c>
+      <c r="G269" s="20" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="42">
+      <c r="A270" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="B270" s="32" t="s">
+        <v>882</v>
+      </c>
+      <c r="C270" s="32"/>
+      <c r="D270" s="28" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="42">
+      <c r="A271" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="B271" s="28" t="s">
+        <v>883</v>
+      </c>
+      <c r="C271" s="28"/>
+      <c r="D271" s="28" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E271" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="F271" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="G271" s="20" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="28">
+      <c r="A272" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="B272" s="21" t="s">
+        <v>884</v>
+      </c>
+      <c r="C272" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="D272" s="21" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E272" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="F272" s="20" t="s">
+        <v>879</v>
+      </c>
+      <c r="G272" s="20" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
-      <c r="A269" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="B269" s="23" t="s">
+    <row r="273" spans="1:7">
+      <c r="A273" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C273" s="11"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
+      <c r="F273" s="11"/>
+      <c r="G273" s="11"/>
+    </row>
+    <row r="274" spans="1:7" ht="28">
+      <c r="A274" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="28">
+      <c r="A275" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="42">
+      <c r="A276" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="42">
+      <c r="A277" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="B277" s="21" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C277" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="D277" s="21" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E277" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="F277" s="20" t="s">
+        <v>892</v>
+      </c>
+      <c r="G277" s="20" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="42">
+      <c r="A278" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="B278" s="21" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C278" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="D278" s="21" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E278" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="F278" s="20" t="s">
         <v>894</v>
       </c>
-      <c r="C269" s="23"/>
-      <c r="D269" s="20"/>
-      <c r="E269" s="20" t="s">
-        <v>879</v>
-      </c>
-      <c r="F269" s="20" t="s">
-        <v>881</v>
-      </c>
-      <c r="G269" s="20" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" ht="28">
-      <c r="A270" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="B270" s="23" t="s">
+      <c r="G278" s="20" t="s">
         <v>895</v>
       </c>
-      <c r="C270" s="23"/>
-      <c r="D270" s="20"/>
-      <c r="E270" s="20" t="s">
-        <v>879</v>
-      </c>
-      <c r="F270" s="20" t="s">
-        <v>882</v>
-      </c>
-      <c r="G270" s="20" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="B271" s="10" t="s">
+    </row>
+    <row r="279" spans="1:7" ht="42">
+      <c r="A279" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="B279" s="21" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C279" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="D279" s="21" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E279" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="F279" s="20" t="s">
         <v>896</v>
       </c>
-      <c r="C271" s="10"/>
-      <c r="D271" s="3"/>
-      <c r="E271" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="F271" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="G271" s="3" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" ht="28">
-      <c r="A272" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="B272" s="23" t="s">
+      <c r="G279" s="20" t="s">
         <v>897</v>
       </c>
-      <c r="C272" s="23"/>
-      <c r="D272" s="20"/>
-      <c r="E272" s="20" t="s">
-        <v>879</v>
-      </c>
-      <c r="F272" s="20" t="s">
-        <v>885</v>
-      </c>
-      <c r="G272" s="20" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" ht="28">
-      <c r="A273" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="B273" s="23" t="s">
-        <v>901</v>
-      </c>
-      <c r="C273" s="23"/>
-      <c r="D273" s="20"/>
-      <c r="E273" s="20" t="s">
-        <v>879</v>
-      </c>
-      <c r="F273" s="20" t="s">
-        <v>887</v>
-      </c>
-      <c r="G273" s="20" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" ht="28">
-      <c r="A274" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="B274" s="23" t="s">
-        <v>898</v>
-      </c>
-      <c r="C274" s="23"/>
-      <c r="D274" s="20"/>
-      <c r="E274" s="20" t="s">
-        <v>879</v>
-      </c>
-      <c r="F274" s="20" t="s">
-        <v>889</v>
-      </c>
-      <c r="G274" s="20" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" ht="28">
-      <c r="A275" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="B275" s="21" t="s">
-        <v>899</v>
-      </c>
-      <c r="C275" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="D275" s="21" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E275" s="20" t="s">
-        <v>879</v>
-      </c>
-      <c r="F275" s="20" t="s">
-        <v>891</v>
-      </c>
-      <c r="G275" s="20" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
-      <c r="A276" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="B276" s="23" t="s">
-        <v>900</v>
-      </c>
-      <c r="C276" s="23"/>
-      <c r="D276" s="20"/>
-      <c r="E276" s="20" t="s">
-        <v>879</v>
-      </c>
-      <c r="F276" s="20" t="s">
-        <v>893</v>
-      </c>
-      <c r="G276" s="20" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
-      <c r="A277" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B277" s="11" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C277" s="11"/>
-      <c r="D277" s="11"/>
-      <c r="E277" s="11"/>
-      <c r="F277" s="11"/>
-      <c r="G277" s="11"/>
-    </row>
-    <row r="278" spans="1:7" ht="28">
-      <c r="A278" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E278" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="F278" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="G278" s="3" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" ht="28">
-      <c r="A279" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E279" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="F279" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="G279" s="3" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" ht="42">
+    </row>
+    <row r="280" spans="1:7" ht="28">
       <c r="A280" s="3" t="s">
         <v>402</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>124</v>
+        <v>402</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>1105</v>
+        <v>1086</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="G280" s="3" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="42">
       <c r="A281" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="B281" s="21" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C281" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="D281" s="21" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E281" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="F281" s="20" t="s">
+        <v>900</v>
+      </c>
+      <c r="G281" s="20" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="28">
+      <c r="A282" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="B281" s="21" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C281" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="D281" s="21" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E281" s="20" t="s">
+      <c r="B282" s="21" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C282" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="D282" s="21" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E282" s="20" t="s">
+        <v>885</v>
+      </c>
+      <c r="F282" s="20" t="s">
         <v>902</v>
       </c>
-      <c r="F281" s="20" t="s">
+      <c r="G282" s="20" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="42">
+      <c r="A283" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C284" s="11"/>
+      <c r="D284" s="11"/>
+      <c r="E284" s="11"/>
+      <c r="F284" s="11"/>
+      <c r="G284" s="11"/>
+    </row>
+    <row r="285" spans="1:7" ht="42">
+      <c r="A285" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="28">
+      <c r="A286" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="F286" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="G281" s="20" t="s">
+      <c r="G286" s="3" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="42">
-      <c r="A282" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="B282" s="21" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C282" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="D282" s="21" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E282" s="20" t="s">
-        <v>902</v>
-      </c>
-      <c r="F282" s="20" t="s">
+    <row r="287" spans="1:7">
+      <c r="A287" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C287" s="11"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11"/>
+      <c r="F287" s="11"/>
+      <c r="G287" s="11"/>
+    </row>
+    <row r="288" spans="1:7" ht="42">
+      <c r="A288" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="B288" s="21"/>
+      <c r="C288" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="D288" s="21" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E288" s="20" t="s">
+        <v>906</v>
+      </c>
+      <c r="F288" s="20" t="s">
+        <v>912</v>
+      </c>
+      <c r="G288" s="20" t="s">
         <v>911</v>
       </c>
-      <c r="G282" s="20" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" ht="42">
-      <c r="A283" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="B283" s="21" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C283" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="D283" s="21" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E283" s="20" t="s">
-        <v>902</v>
-      </c>
-      <c r="F283" s="20" t="s">
+    </row>
+    <row r="289" spans="1:7" ht="42">
+      <c r="A289" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="B289" s="21"/>
+      <c r="C289" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="D289" s="21" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E289" s="20" t="s">
+        <v>906</v>
+      </c>
+      <c r="F289" s="20" t="s">
         <v>913</v>
       </c>
-      <c r="G283" s="20" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" ht="28">
-      <c r="A284" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E284" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="F284" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="G284" s="3" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" ht="42">
-      <c r="A285" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="B285" s="21" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C285" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="D285" s="21" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E285" s="20" t="s">
-        <v>902</v>
-      </c>
-      <c r="F285" s="20" t="s">
-        <v>917</v>
-      </c>
-      <c r="G285" s="20" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" ht="28">
-      <c r="A286" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="B286" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C286" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="D286" s="21" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E286" s="20" t="s">
-        <v>902</v>
-      </c>
-      <c r="F286" s="20" t="s">
-        <v>919</v>
-      </c>
-      <c r="G286" s="20" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" ht="42">
-      <c r="A287" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E287" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="G287" s="3" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B288" s="11" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C288" s="11"/>
-      <c r="D288" s="11"/>
-      <c r="E288" s="11"/>
-      <c r="F288" s="11"/>
-      <c r="G288" s="11"/>
-    </row>
-    <row r="289" spans="1:7" ht="42">
-      <c r="A289" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E289" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="F289" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="G289" s="3" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" ht="28">
-      <c r="A290" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E290" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="F290" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="G290" s="3" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B291" s="11" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C291" s="11"/>
-      <c r="D291" s="11"/>
-      <c r="E291" s="11"/>
-      <c r="F291" s="11"/>
-      <c r="G291" s="11"/>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="B292" s="28"/>
-      <c r="C292" s="28"/>
-      <c r="D292" s="19"/>
-      <c r="E292" s="20" t="s">
-        <v>923</v>
-      </c>
-      <c r="F292" s="20" t="s">
-        <v>928</v>
-      </c>
-      <c r="G292" s="20" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" ht="42">
-      <c r="A293" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="B293" s="21"/>
-      <c r="C293" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="D293" s="21" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E293" s="20" t="s">
-        <v>923</v>
-      </c>
-      <c r="F293" s="20" t="s">
-        <v>930</v>
-      </c>
-      <c r="G293" s="20" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" ht="28">
-      <c r="A294" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="B294" s="28"/>
-      <c r="C294" s="28"/>
-      <c r="D294" s="19"/>
-      <c r="E294" s="20" t="s">
-        <v>923</v>
-      </c>
-      <c r="F294" s="20" t="s">
-        <v>931</v>
-      </c>
-      <c r="G294" s="20" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" ht="42">
-      <c r="A295" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="B295" s="21"/>
-      <c r="C295" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="D295" s="21" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E295" s="20" t="s">
-        <v>923</v>
-      </c>
-      <c r="F295" s="20" t="s">
-        <v>932</v>
-      </c>
-      <c r="G295" s="20" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="B296" s="31"/>
-      <c r="C296" s="31"/>
-      <c r="D296" s="21"/>
-      <c r="E296" s="20" t="s">
-        <v>923</v>
-      </c>
-      <c r="F296" s="20" t="s">
-        <v>933</v>
-      </c>
-      <c r="G296" s="20" t="s">
-        <v>929</v>
+      <c r="G289" s="20" t="s">
+        <v>911</v>
       </c>
     </row>
   </sheetData>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Court_Case_Query_Results/artifacts/service_model/information_model/IEPD/documentation/Court_Case_Query_Results-Mapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Court_Case_Query_Results/artifacts/service_model/information_model/IEPD/documentation/Court_Case_Query_Results-Mapping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="1170">
   <si>
     <t>Race</t>
   </si>
@@ -3502,18 +3502,9 @@
     <t>ccq-res-doc:CourtCaseQueryResults/nc:Case/j:CaseAugmentation/j:CaseCharge/j:ChargePlea/j:PleaDescriptionText</t>
   </si>
   <si>
-    <t>ccq-res-doc:CourtCaseQueryResults/nc:Case/j:CaseAugmentation/j:CaseCharge/j:ChargePlea/j:PleaRecommendationjText</t>
-  </si>
-  <si>
     <t>ccq-res-doc:CourtCaseQueryResults/nc:Vehicle/j:ConveyanceAugmentation/j:ModelYearRange/nc:StartDate/nc:YearDate</t>
   </si>
   <si>
-    <t>ccq-res-doc:CourtCaseQueryResults/nc:Vehicle/nc:VehicleIdentification/intel:IdentificationAugmentation/intel:IdentificationIssuingLocalityText</t>
-  </si>
-  <si>
-    <t>ccq-res-doc:CourtCaseQueryResults/nc:Vehicle/nc:VehicleIdentification/intel:IdentificationAugmentation/intel:IdentificationIssuingStateName</t>
-  </si>
-  <si>
     <t>ccq-res-doc:CourtCaseQueryResults/nc:Vehicle/nc:ItemColor/j:ConveyanceColorPrimaryCode</t>
   </si>
   <si>
@@ -3536,13 +3527,19 @@
   </si>
   <si>
     <t>ccq-res-doc:CourtCaseQueryResults/nc:Case/j:CaseAugmentation/j:CaseCharge/j:ChargeSentence/nc:OrganizationName</t>
+  </si>
+  <si>
+    <t>ccq-res-doc:CourtCaseQueryResults/nc:Case/j:CaseAugmentation/j:CaseCharge/j:ChargePlea/j:PleaRecommendationText</t>
+  </si>
+  <si>
+    <t>ccq-res-doc:CourtCaseQueryResults/nc:Vehicle/nc:VehicleIdentification/j:ConveyanceRegistrationPlateIdentification/nc:IdentificationID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3640,6 +3637,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -3713,7 +3717,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="785">
+  <cellStyleXfs count="789">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4499,8 +4503,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4670,8 +4678,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="154" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="785">
+  <cellStyles count="789">
     <cellStyle name="Calculation" xfId="154" builtinId="22"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -5064,6 +5081,8 @@
     <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -5455,6 +5474,8 @@
     <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -5788,8 +5809,8 @@
   <dimension ref="A1:J289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="2" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8528,7 +8549,7 @@
         <v>663</v>
       </c>
       <c r="C129" s="23"/>
-      <c r="D129" s="23" t="s">
+      <c r="D129" s="59" t="s">
         <v>1127</v>
       </c>
       <c r="E129" s="23" t="s">
@@ -9505,7 +9526,7 @@
         <v>751</v>
       </c>
       <c r="D175" s="28" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>11</v>
@@ -9528,7 +9549,7 @@
         <v>752</v>
       </c>
       <c r="D176" s="28" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>11</v>
@@ -9953,15 +9974,15 @@
       </c>
     </row>
     <row r="197" spans="1:7" ht="42">
-      <c r="A197" s="32" t="s">
+      <c r="A197" s="61" t="s">
         <v>311</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>313</v>
       </c>
       <c r="C197" s="26"/>
-      <c r="D197" s="26" t="s">
-        <v>1159</v>
+      <c r="D197" s="60" t="s">
+        <v>1168</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>566</v>
@@ -9983,7 +10004,7 @@
       <c r="C198" s="26" t="s">
         <v>1058</v>
       </c>
-      <c r="D198" s="26" t="s">
+      <c r="D198" s="60" t="s">
         <v>1158</v>
       </c>
       <c r="E198" s="3" t="s">
@@ -10560,7 +10581,7 @@
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="10" t="s">
-        <v>1161</v>
+        <v>1169</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>828</v>
@@ -10581,7 +10602,7 @@
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="10" t="s">
-        <v>1162</v>
+        <v>1169</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>828</v>
@@ -10673,7 +10694,7 @@
         <v>827</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="E232" s="3" t="s">
         <v>828</v>
@@ -10694,7 +10715,7 @@
       </c>
       <c r="C233" s="10"/>
       <c r="D233" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>828</v>
@@ -11108,7 +11129,7 @@
       </c>
       <c r="C260" s="10"/>
       <c r="D260" s="32" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>847</v>
@@ -11152,7 +11173,7 @@
       </c>
       <c r="C262" s="10"/>
       <c r="D262" s="32" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="E262" s="3" t="s">
         <v>847</v>
@@ -11301,7 +11322,7 @@
       </c>
       <c r="C269" s="28"/>
       <c r="D269" s="28" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="E269" s="20" t="s">
         <v>872</v>
@@ -11322,7 +11343,7 @@
       </c>
       <c r="C270" s="32"/>
       <c r="D270" s="28" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="E270" s="3" t="s">
         <v>872</v>
@@ -11343,7 +11364,7 @@
       </c>
       <c r="C271" s="28"/>
       <c r="D271" s="28" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="E271" s="20" t="s">
         <v>872</v>
